--- a/+model/+symmetric2A/steady.xlsx
+++ b/+model/+symmetric2A/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21722" uniqueCount="20804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22807" uniqueCount="21550">
   <si>
     <t>Row</t>
   </si>
@@ -60184,6 +60184,2244 @@
   </si>
   <si>
     <t>Share of imports from ?x in total ?m imports</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>aa_nn</t>
+  </si>
+  <si>
+    <t>aa_roc_nn</t>
+  </si>
+  <si>
+    <t>aa_nr</t>
+  </si>
+  <si>
+    <t>aa_nw</t>
+  </si>
+  <si>
+    <t>aa_nf</t>
+  </si>
+  <si>
+    <t>aa_ch</t>
+  </si>
+  <si>
+    <t>aa_ref_ch</t>
+  </si>
+  <si>
+    <t>aa_rdf</t>
+  </si>
+  <si>
+    <t>aa_nh</t>
+  </si>
+  <si>
+    <t>aa_nv</t>
+  </si>
+  <si>
+    <t>aa_ih</t>
+  </si>
+  <si>
+    <t>aa_k</t>
+  </si>
+  <si>
+    <t>aa_uk</t>
+  </si>
+  <si>
+    <t>aa_kk</t>
+  </si>
+  <si>
+    <t>aa_netw</t>
+  </si>
+  <si>
+    <t>aa_ar</t>
+  </si>
+  <si>
+    <t>aa_vh</t>
+  </si>
+  <si>
+    <t>aa_pch</t>
+  </si>
+  <si>
+    <t>aa_pih</t>
+  </si>
+  <si>
+    <t>aa_yz</t>
+  </si>
+  <si>
+    <t>aa_y3</t>
+  </si>
+  <si>
+    <t>aa_y2</t>
+  </si>
+  <si>
+    <t>aa_y1</t>
+  </si>
+  <si>
+    <t>aa_y</t>
+  </si>
+  <si>
+    <t>aa_py3</t>
+  </si>
+  <si>
+    <t>aa_py2</t>
+  </si>
+  <si>
+    <t>aa_py1</t>
+  </si>
+  <si>
+    <t>aa_py0</t>
+  </si>
+  <si>
+    <t>aa_pq</t>
+  </si>
+  <si>
+    <t>aa_mq</t>
+  </si>
+  <si>
+    <t>aa_ngdp</t>
+  </si>
+  <si>
+    <t>aa_roc_gdp</t>
+  </si>
+  <si>
+    <t>aa_roc_gdp_to_nn</t>
+  </si>
+  <si>
+    <t>aa_py</t>
+  </si>
+  <si>
+    <t>aa_pk</t>
+  </si>
+  <si>
+    <t>aa_pu</t>
+  </si>
+  <si>
+    <t>aa_w</t>
+  </si>
+  <si>
+    <t>aa_ww</t>
+  </si>
+  <si>
+    <t>aa_r</t>
+  </si>
+  <si>
+    <t>aa_unc_r</t>
+  </si>
+  <si>
+    <t>aa_rh</t>
+  </si>
+  <si>
+    <t>aa_zh</t>
+  </si>
+  <si>
+    <t>aa_roc_py</t>
+  </si>
+  <si>
+    <t>aa_ref_roc_py</t>
+  </si>
+  <si>
+    <t>aa_roc_w</t>
+  </si>
+  <si>
+    <t>aa_roc_pch</t>
+  </si>
+  <si>
+    <t>aa_roc_ih</t>
+  </si>
+  <si>
+    <t>aa_u</t>
+  </si>
+  <si>
+    <t>aa_roc_k</t>
+  </si>
+  <si>
+    <t>aa_roc_y3</t>
+  </si>
+  <si>
+    <t>aa_roc_nv</t>
+  </si>
+  <si>
+    <t>aa_ych</t>
+  </si>
+  <si>
+    <t>aa_ycg</t>
+  </si>
+  <si>
+    <t>aa_yih</t>
+  </si>
+  <si>
+    <t>aa_upsilon_1_py_to_pu</t>
+  </si>
+  <si>
+    <t>aa_nch_to_netw_minus_nu_0</t>
+  </si>
+  <si>
+    <t>aa_mm</t>
+  </si>
+  <si>
+    <t>aa_pmm</t>
+  </si>
+  <si>
+    <t>aa_fob_pmm</t>
+  </si>
+  <si>
+    <t>aa_mxx</t>
+  </si>
+  <si>
+    <t>aa_my</t>
+  </si>
+  <si>
+    <t>aa_yxx</t>
+  </si>
+  <si>
+    <t>aa_xx</t>
+  </si>
+  <si>
+    <t>aa_xq</t>
+  </si>
+  <si>
+    <t>aa_pxx</t>
+  </si>
+  <si>
+    <t>aa_nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>aa_rnfa</t>
+  </si>
+  <si>
+    <t>aa_nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>aa_e</t>
+  </si>
+  <si>
+    <t>aa_exp_e</t>
+  </si>
+  <si>
+    <t>aa_roc_e</t>
+  </si>
+  <si>
+    <t>aa_feq_to_ngdp</t>
+  </si>
+  <si>
+    <t>aa_pxx_rcy</t>
+  </si>
+  <si>
+    <t>aa_nxx_rcy</t>
+  </si>
+  <si>
+    <t>aa_rg</t>
+  </si>
+  <si>
+    <t>aa_pcg</t>
+  </si>
+  <si>
+    <t>aa_cg</t>
+  </si>
+  <si>
+    <t>aa_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>aa_trls1</t>
+  </si>
+  <si>
+    <t>aa_trls2</t>
+  </si>
+  <si>
+    <t>aa_roc_cg</t>
+  </si>
+  <si>
+    <t>aa_trm</t>
+  </si>
+  <si>
+    <t>bb_nn</t>
+  </si>
+  <si>
+    <t>bb_roc_nn</t>
+  </si>
+  <si>
+    <t>bb_nr</t>
+  </si>
+  <si>
+    <t>bb_nw</t>
+  </si>
+  <si>
+    <t>bb_nf</t>
+  </si>
+  <si>
+    <t>bb_ch</t>
+  </si>
+  <si>
+    <t>bb_ref_ch</t>
+  </si>
+  <si>
+    <t>bb_rdf</t>
+  </si>
+  <si>
+    <t>bb_nh</t>
+  </si>
+  <si>
+    <t>bb_nv</t>
+  </si>
+  <si>
+    <t>bb_ih</t>
+  </si>
+  <si>
+    <t>bb_k</t>
+  </si>
+  <si>
+    <t>bb_uk</t>
+  </si>
+  <si>
+    <t>bb_kk</t>
+  </si>
+  <si>
+    <t>bb_netw</t>
+  </si>
+  <si>
+    <t>bb_ar</t>
+  </si>
+  <si>
+    <t>bb_vh</t>
+  </si>
+  <si>
+    <t>bb_pch</t>
+  </si>
+  <si>
+    <t>bb_pih</t>
+  </si>
+  <si>
+    <t>bb_yz</t>
+  </si>
+  <si>
+    <t>bb_y3</t>
+  </si>
+  <si>
+    <t>bb_y2</t>
+  </si>
+  <si>
+    <t>bb_y1</t>
+  </si>
+  <si>
+    <t>bb_y</t>
+  </si>
+  <si>
+    <t>bb_py3</t>
+  </si>
+  <si>
+    <t>bb_py2</t>
+  </si>
+  <si>
+    <t>bb_py1</t>
+  </si>
+  <si>
+    <t>bb_py0</t>
+  </si>
+  <si>
+    <t>bb_pq</t>
+  </si>
+  <si>
+    <t>bb_mq</t>
+  </si>
+  <si>
+    <t>bb_ngdp</t>
+  </si>
+  <si>
+    <t>bb_roc_gdp</t>
+  </si>
+  <si>
+    <t>bb_roc_gdp_to_nn</t>
+  </si>
+  <si>
+    <t>bb_py</t>
+  </si>
+  <si>
+    <t>bb_pk</t>
+  </si>
+  <si>
+    <t>bb_pu</t>
+  </si>
+  <si>
+    <t>bb_w</t>
+  </si>
+  <si>
+    <t>bb_ww</t>
+  </si>
+  <si>
+    <t>bb_r</t>
+  </si>
+  <si>
+    <t>bb_unc_r</t>
+  </si>
+  <si>
+    <t>bb_rh</t>
+  </si>
+  <si>
+    <t>bb_zh</t>
+  </si>
+  <si>
+    <t>bb_roc_py</t>
+  </si>
+  <si>
+    <t>bb_ref_roc_py</t>
+  </si>
+  <si>
+    <t>bb_roc_w</t>
+  </si>
+  <si>
+    <t>bb_roc_pch</t>
+  </si>
+  <si>
+    <t>bb_roc_ih</t>
+  </si>
+  <si>
+    <t>bb_u</t>
+  </si>
+  <si>
+    <t>bb_roc_k</t>
+  </si>
+  <si>
+    <t>bb_roc_y3</t>
+  </si>
+  <si>
+    <t>bb_roc_nv</t>
+  </si>
+  <si>
+    <t>bb_ych</t>
+  </si>
+  <si>
+    <t>bb_ycg</t>
+  </si>
+  <si>
+    <t>bb_yih</t>
+  </si>
+  <si>
+    <t>bb_upsilon_1_py_to_pu</t>
+  </si>
+  <si>
+    <t>bb_nch_to_netw_minus_nu_0</t>
+  </si>
+  <si>
+    <t>bb_mm</t>
+  </si>
+  <si>
+    <t>bb_pmm</t>
+  </si>
+  <si>
+    <t>bb_fob_pmm</t>
+  </si>
+  <si>
+    <t>bb_mxx</t>
+  </si>
+  <si>
+    <t>bb_my</t>
+  </si>
+  <si>
+    <t>bb_yxx</t>
+  </si>
+  <si>
+    <t>bb_xx</t>
+  </si>
+  <si>
+    <t>bb_xq</t>
+  </si>
+  <si>
+    <t>bb_pxx</t>
+  </si>
+  <si>
+    <t>bb_nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>bb_rnfa</t>
+  </si>
+  <si>
+    <t>bb_nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>bb_e</t>
+  </si>
+  <si>
+    <t>bb_exp_e</t>
+  </si>
+  <si>
+    <t>bb_roc_e</t>
+  </si>
+  <si>
+    <t>bb_feq_to_ngdp</t>
+  </si>
+  <si>
+    <t>bb_pxx_rcy</t>
+  </si>
+  <si>
+    <t>bb_nxx_rcy</t>
+  </si>
+  <si>
+    <t>bb_rg</t>
+  </si>
+  <si>
+    <t>bb_pcg</t>
+  </si>
+  <si>
+    <t>bb_cg</t>
+  </si>
+  <si>
+    <t>bb_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>bb_trls1</t>
+  </si>
+  <si>
+    <t>bb_trls2</t>
+  </si>
+  <si>
+    <t>bb_roc_cg</t>
+  </si>
+  <si>
+    <t>bb_trm</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nt</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>gg_roc_nn</t>
+  </si>
+  <si>
+    <t>gg_pxx</t>
+  </si>
+  <si>
+    <t>gg_ngdp</t>
+  </si>
+  <si>
+    <t>gg_roc_gdp</t>
+  </si>
+  <si>
+    <t>gg_roc_gdp_to_nn</t>
+  </si>
+  <si>
+    <t>aa_comp_ch_to_nn</t>
+  </si>
+  <si>
+    <t>aa_comp_y_to_nn</t>
+  </si>
+  <si>
+    <t>bb_comp_ch_to_nn</t>
+  </si>
+  <si>
+    <t>bb_comp_y_to_nn</t>
+  </si>
+  <si>
+    <t>gg_qq</t>
+  </si>
+  <si>
+    <t>gg_q</t>
+  </si>
+  <si>
+    <t>gg_qexc</t>
+  </si>
+  <si>
+    <t>gg_pq</t>
+  </si>
+  <si>
+    <t>gg_pq_to_pxx</t>
+  </si>
+  <si>
+    <t>aa_mm_aa</t>
+  </si>
+  <si>
+    <t>aa_mm_bb</t>
+  </si>
+  <si>
+    <t>bb_mm_aa</t>
+  </si>
+  <si>
+    <t>bb_mm_bb</t>
+  </si>
+  <si>
+    <t>aa_trm_aa</t>
+  </si>
+  <si>
+    <t>aa_trm_bb</t>
+  </si>
+  <si>
+    <t>bb_trm_aa</t>
+  </si>
+  <si>
+    <t>bb_trm_bb</t>
+  </si>
+  <si>
+    <t>aa_shk_nr</t>
+  </si>
+  <si>
+    <t>aa_shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>aa_shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>aa_shk_ar</t>
+  </si>
+  <si>
+    <t>aa_shk_r</t>
+  </si>
+  <si>
+    <t>aa_shk_w</t>
+  </si>
+  <si>
+    <t>aa_shk_curr</t>
+  </si>
+  <si>
+    <t>aa_shk_pk</t>
+  </si>
+  <si>
+    <t>aa_shk_e</t>
+  </si>
+  <si>
+    <t>aa_shk_cg</t>
+  </si>
+  <si>
+    <t>aa_shk_trls1</t>
+  </si>
+  <si>
+    <t>aa_shk_trls2</t>
+  </si>
+  <si>
+    <t>aa_shk_trm</t>
+  </si>
+  <si>
+    <t>bb_shk_nr</t>
+  </si>
+  <si>
+    <t>bb_shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>bb_shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>bb_shk_ar</t>
+  </si>
+  <si>
+    <t>bb_shk_r</t>
+  </si>
+  <si>
+    <t>bb_shk_w</t>
+  </si>
+  <si>
+    <t>bb_shk_curr</t>
+  </si>
+  <si>
+    <t>bb_shk_pk</t>
+  </si>
+  <si>
+    <t>bb_shk_e</t>
+  </si>
+  <si>
+    <t>bb_shk_cg</t>
+  </si>
+  <si>
+    <t>bb_shk_trls1</t>
+  </si>
+  <si>
+    <t>bb_shk_trls2</t>
+  </si>
+  <si>
+    <t>bb_shk_trm</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>gg_shk_qq</t>
+  </si>
+  <si>
+    <t>gg_shk_pq</t>
+  </si>
+  <si>
+    <t>aa_shk_trm_aa</t>
+  </si>
+  <si>
+    <t>aa_shk_trm_bb</t>
+  </si>
+  <si>
+    <t>bb_shk_trm_aa</t>
+  </si>
+  <si>
+    <t>bb_shk_trm_bb</t>
+  </si>
+  <si>
+    <t>aa_ss_nr</t>
+  </si>
+  <si>
+    <t>aa_ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>aa_ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>aa_rho_nr</t>
+  </si>
+  <si>
+    <t>aa_rho_nw</t>
+  </si>
+  <si>
+    <t>aa_rho_nf</t>
+  </si>
+  <si>
+    <t>aa_ss_ar</t>
+  </si>
+  <si>
+    <t>aa_ss_roc_pch</t>
+  </si>
+  <si>
+    <t>aa_rho_ar</t>
+  </si>
+  <si>
+    <t>aa_beta</t>
+  </si>
+  <si>
+    <t>aa_eta</t>
+  </si>
+  <si>
+    <t>aa_rho_w</t>
+  </si>
+  <si>
+    <t>aa_beta_k</t>
+  </si>
+  <si>
+    <t>aa_delta</t>
+  </si>
+  <si>
+    <t>aa_chi</t>
+  </si>
+  <si>
+    <t>aa_chi_ch</t>
+  </si>
+  <si>
+    <t>aa_chi_curr</t>
+  </si>
+  <si>
+    <t>aa_nu_0</t>
+  </si>
+  <si>
+    <t>aa_nu_1</t>
+  </si>
+  <si>
+    <t>aa_xi_ih1</t>
+  </si>
+  <si>
+    <t>aa_xi_ih2</t>
+  </si>
+  <si>
+    <t>aa_upsilon_0</t>
+  </si>
+  <si>
+    <t>aa_upsilon_1</t>
+  </si>
+  <si>
+    <t>aa_gamma_n0</t>
+  </si>
+  <si>
+    <t>aa_gamma_n</t>
+  </si>
+  <si>
+    <t>aa_gamma_uk</t>
+  </si>
+  <si>
+    <t>aa_gamma_q</t>
+  </si>
+  <si>
+    <t>aa_gamma_yz</t>
+  </si>
+  <si>
+    <t>aa_xi_py</t>
+  </si>
+  <si>
+    <t>aa_mu_py</t>
+  </si>
+  <si>
+    <t>aa_rho_r</t>
+  </si>
+  <si>
+    <t>aa_psi_pch</t>
+  </si>
+  <si>
+    <t>aa_psi_e</t>
+  </si>
+  <si>
+    <t>aa_mu_y3</t>
+  </si>
+  <si>
+    <t>aa_zeta_py</t>
+  </si>
+  <si>
+    <t>aa_xi_y2</t>
+  </si>
+  <si>
+    <t>aa_xi_y1</t>
+  </si>
+  <si>
+    <t>aa_theta_3</t>
+  </si>
+  <si>
+    <t>aa_floor</t>
+  </si>
+  <si>
+    <t>aa_alpha</t>
+  </si>
+  <si>
+    <t>aa_gamma_xx</t>
+  </si>
+  <si>
+    <t>aa_theta_0</t>
+  </si>
+  <si>
+    <t>aa_theta_1</t>
+  </si>
+  <si>
+    <t>aa_zeta_e</t>
+  </si>
+  <si>
+    <t>aa_lambda</t>
+  </si>
+  <si>
+    <t>aa_xi_y3</t>
+  </si>
+  <si>
+    <t>aa_ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>aa_ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>aa_ss_trm</t>
+  </si>
+  <si>
+    <t>aa_tau_cg</t>
+  </si>
+  <si>
+    <t>aa_tau_trls1</t>
+  </si>
+  <si>
+    <t>aa_rho_cg</t>
+  </si>
+  <si>
+    <t>aa_rho_trls2</t>
+  </si>
+  <si>
+    <t>aa_rho_trls1</t>
+  </si>
+  <si>
+    <t>aa_rho_trm</t>
+  </si>
+  <si>
+    <t>bb_ss_nr</t>
+  </si>
+  <si>
+    <t>bb_ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>bb_ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>bb_rho_nr</t>
+  </si>
+  <si>
+    <t>bb_rho_nw</t>
+  </si>
+  <si>
+    <t>bb_rho_nf</t>
+  </si>
+  <si>
+    <t>bb_ss_ar</t>
+  </si>
+  <si>
+    <t>bb_ss_roc_pch</t>
+  </si>
+  <si>
+    <t>bb_rho_ar</t>
+  </si>
+  <si>
+    <t>bb_beta</t>
+  </si>
+  <si>
+    <t>bb_eta</t>
+  </si>
+  <si>
+    <t>bb_rho_w</t>
+  </si>
+  <si>
+    <t>bb_beta_k</t>
+  </si>
+  <si>
+    <t>bb_delta</t>
+  </si>
+  <si>
+    <t>bb_chi</t>
+  </si>
+  <si>
+    <t>bb_chi_ch</t>
+  </si>
+  <si>
+    <t>bb_chi_curr</t>
+  </si>
+  <si>
+    <t>bb_nu_0</t>
+  </si>
+  <si>
+    <t>bb_nu_1</t>
+  </si>
+  <si>
+    <t>bb_xi_ih1</t>
+  </si>
+  <si>
+    <t>bb_xi_ih2</t>
+  </si>
+  <si>
+    <t>bb_upsilon_0</t>
+  </si>
+  <si>
+    <t>bb_upsilon_1</t>
+  </si>
+  <si>
+    <t>bb_gamma_n0</t>
+  </si>
+  <si>
+    <t>bb_gamma_n</t>
+  </si>
+  <si>
+    <t>bb_gamma_uk</t>
+  </si>
+  <si>
+    <t>bb_gamma_q</t>
+  </si>
+  <si>
+    <t>bb_gamma_yz</t>
+  </si>
+  <si>
+    <t>bb_xi_py</t>
+  </si>
+  <si>
+    <t>bb_mu_py</t>
+  </si>
+  <si>
+    <t>bb_rho_r</t>
+  </si>
+  <si>
+    <t>bb_psi_pch</t>
+  </si>
+  <si>
+    <t>bb_psi_e</t>
+  </si>
+  <si>
+    <t>bb_mu_y3</t>
+  </si>
+  <si>
+    <t>bb_zeta_py</t>
+  </si>
+  <si>
+    <t>bb_xi_y2</t>
+  </si>
+  <si>
+    <t>bb_xi_y1</t>
+  </si>
+  <si>
+    <t>bb_theta_3</t>
+  </si>
+  <si>
+    <t>bb_floor</t>
+  </si>
+  <si>
+    <t>bb_alpha</t>
+  </si>
+  <si>
+    <t>bb_gamma_xx</t>
+  </si>
+  <si>
+    <t>bb_theta_0</t>
+  </si>
+  <si>
+    <t>bb_theta_1</t>
+  </si>
+  <si>
+    <t>bb_zeta_e</t>
+  </si>
+  <si>
+    <t>bb_lambda</t>
+  </si>
+  <si>
+    <t>bb_xi_y3</t>
+  </si>
+  <si>
+    <t>bb_ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>bb_ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>bb_ss_trm</t>
+  </si>
+  <si>
+    <t>bb_tau_cg</t>
+  </si>
+  <si>
+    <t>bb_tau_trls1</t>
+  </si>
+  <si>
+    <t>bb_rho_cg</t>
+  </si>
+  <si>
+    <t>bb_rho_trls2</t>
+  </si>
+  <si>
+    <t>bb_rho_trls1</t>
+  </si>
+  <si>
+    <t>bb_rho_trm</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nt</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nt</t>
+  </si>
+  <si>
+    <t>gg_nu</t>
+  </si>
+  <si>
+    <t>gg_ss_aq</t>
+  </si>
+  <si>
+    <t>gg_rho_aqq</t>
+  </si>
+  <si>
+    <t>iota_1</t>
+  </si>
+  <si>
+    <t>aa_xi_mm</t>
+  </si>
+  <si>
+    <t>aa_omega_aa</t>
+  </si>
+  <si>
+    <t>aa_omega_bb</t>
+  </si>
+  <si>
+    <t>bb_xi_mm</t>
+  </si>
+  <si>
+    <t>bb_omega_aa</t>
+  </si>
+  <si>
+    <t>bb_omega_bb</t>
+  </si>
+  <si>
+    <t>aa_ss_trm_aa</t>
+  </si>
+  <si>
+    <t>aa_rho_trm_aa</t>
+  </si>
+  <si>
+    <t>aa_ss_trm_bb</t>
+  </si>
+  <si>
+    <t>aa_rho_trm_bb</t>
+  </si>
+  <si>
+    <t>bb_ss_trm_aa</t>
+  </si>
+  <si>
+    <t>bb_rho_trm_aa</t>
+  </si>
+  <si>
+    <t>bb_ss_trm_bb</t>
+  </si>
+  <si>
+    <t>bb_rho_trm_bb</t>
+  </si>
+  <si>
+    <t>aa_phi_aa</t>
+  </si>
+  <si>
+    <t>aa_phi_bb</t>
+  </si>
+  <si>
+    <t>bb_phi_aa</t>
+  </si>
+  <si>
+    <t>bb_phi_bb</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total population</t>
+  </si>
+  <si>
+    <t>Total population, Rate of change</t>
+  </si>
+  <si>
+    <t>Total population relative to global population component</t>
+  </si>
+  <si>
+    <t>Working age population</t>
+  </si>
+  <si>
+    <t>Labor force</t>
+  </si>
+  <si>
+    <t>Private consumption</t>
+  </si>
+  <si>
+    <t>Private consumption, Point of reference</t>
+  </si>
+  <si>
+    <t>Real discount factor</t>
+  </si>
+  <si>
+    <t>Per-worker labor supply</t>
+  </si>
+  <si>
+    <t>Variable labor</t>
+  </si>
+  <si>
+    <t>Private investment</t>
+  </si>
+  <si>
+    <t>Production capital</t>
+  </si>
+  <si>
+    <t>Production capital services</t>
+  </si>
+  <si>
+    <t>Portfolio of claims on production capital</t>
+  </si>
+  <si>
+    <t>Household net worth</t>
+  </si>
+  <si>
+    <t>Area specific productivity component</t>
+  </si>
+  <si>
+    <t>Shadow value of household budget constraing</t>
+  </si>
+  <si>
+    <t>Price of private consumption</t>
+  </si>
+  <si>
+    <t>Price of private investment</t>
+  </si>
+  <si>
+    <t>Domestic intermediate inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 output</t>
+  </si>
+  <si>
+    <t>Stage T-2 output</t>
+  </si>
+  <si>
+    <t>Stage T-1 output</t>
+  </si>
+  <si>
+    <t>Stage T-0 output</t>
+  </si>
+  <si>
+    <t>Price of stage T-3 output</t>
+  </si>
+  <si>
+    <t>Price of state T-2 output</t>
+  </si>
+  <si>
+    <t>Price of state T-1 output</t>
+  </si>
+  <si>
+    <t>Price of stage T-0 output</t>
+  </si>
+  <si>
+    <t>Price of commodity input into production</t>
+  </si>
+  <si>
+    <t>Commodity input into production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Real GDP index, Rate of change</t>
+  </si>
+  <si>
+    <t>Per-capita real GDP index, Rate of change</t>
+  </si>
+  <si>
+    <t>Price of domestic production</t>
+  </si>
+  <si>
+    <t>Price of production capital</t>
+  </si>
+  <si>
+    <t>Price of production capital services</t>
+  </si>
+  <si>
+    <t>Nominal wage rate</t>
+  </si>
+  <si>
+    <t>Nominal wage rate absent labor market rigidities</t>
+  </si>
+  <si>
+    <t>Nominal short-term rate, LCY</t>
+  </si>
+  <si>
+    <t>Unconstrained nominal short-term rate, LCY</t>
+  </si>
+  <si>
+    <t>Nominal household rate, LCY</t>
+  </si>
+  <si>
+    <t>Household credit risk</t>
+  </si>
+  <si>
+    <t>Price of final domestic output, Rate of change</t>
+  </si>
+  <si>
+    <t>Price of final domestic output, Rate of change, Point of reference</t>
+  </si>
+  <si>
+    <t>Nominal wage rate, Rate of change</t>
+  </si>
+  <si>
+    <t>Price of consumer goods, Rate of change</t>
+  </si>
+  <si>
+    <t>Household investment, Rate of change</t>
+  </si>
+  <si>
+    <t>Utilization rate of production capital</t>
+  </si>
+  <si>
+    <t>Utilization rate of production capital, Rate of change</t>
+  </si>
+  <si>
+    <t>Stage T-3 output, Rate of change</t>
+  </si>
+  <si>
+    <t>Variable labor, Rate of change</t>
+  </si>
+  <si>
+    <t>Domestic component of household consumption</t>
+  </si>
+  <si>
+    <t>Domestic component of government consumption</t>
+  </si>
+  <si>
+    <t>Domestic component of household investment</t>
+  </si>
+  <si>
+    <t>Auxiliary variable for steady-state calibration of upsilon_0</t>
+  </si>
+  <si>
+    <t>Auxiliary equation for steady-state calibration of nu_0</t>
+  </si>
+  <si>
+    <t>Non-commodity imports</t>
+  </si>
+  <si>
+    <t>Price of non-commodity imports</t>
+  </si>
+  <si>
+    <t>Price of non-commodity imports, Free on board at destinatin point</t>
+  </si>
+  <si>
+    <t>Import content of non-commodity exports</t>
+  </si>
+  <si>
+    <t>Intermediate import inputs into domestic production</t>
+  </si>
+  <si>
+    <t>Domestic content of non-commodity exports</t>
+  </si>
+  <si>
+    <t>Non-commodity exports</t>
+  </si>
+  <si>
+    <t>Commodity exports</t>
+  </si>
+  <si>
+    <t>Price of non-commodity exports</t>
+  </si>
+  <si>
+    <t>Net foreign assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective interest rate and valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for net foreign assets to GDP ratio</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Expectations of nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Financial flows from corporate equity to GDP ratio</t>
+  </si>
+  <si>
+    <t>Price of non-commodity exports, Reference currency</t>
+  </si>
+  <si>
+    <t>Value of non-commodity exports, Reference currency</t>
+  </si>
+  <si>
+    <t>Government debt interest rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government consumption</t>
+  </si>
+  <si>
+    <t>Government debt to GDP ratio</t>
+  </si>
+  <si>
+    <t>Net lump-sum tax rate on wealthy consumers</t>
+  </si>
+  <si>
+    <t>Net lump-sum tax rate on poor consumers</t>
+  </si>
+  <si>
+    <t>Government consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>Import tariff rate</t>
+  </si>
+  <si>
+    <t>Total population</t>
+  </si>
+  <si>
+    <t>Total population, Rate of change</t>
+  </si>
+  <si>
+    <t>Total population relative to global population component</t>
+  </si>
+  <si>
+    <t>Working age population</t>
+  </si>
+  <si>
+    <t>Labor force</t>
+  </si>
+  <si>
+    <t>Private consumption</t>
+  </si>
+  <si>
+    <t>Private consumption, Point of reference</t>
+  </si>
+  <si>
+    <t>Real discount factor</t>
+  </si>
+  <si>
+    <t>Per-worker labor supply</t>
+  </si>
+  <si>
+    <t>Variable labor</t>
+  </si>
+  <si>
+    <t>Private investment</t>
+  </si>
+  <si>
+    <t>Production capital</t>
+  </si>
+  <si>
+    <t>Production capital services</t>
+  </si>
+  <si>
+    <t>Portfolio of claims on production capital</t>
+  </si>
+  <si>
+    <t>Household net worth</t>
+  </si>
+  <si>
+    <t>Area specific productivity component</t>
+  </si>
+  <si>
+    <t>Shadow value of household budget constraing</t>
+  </si>
+  <si>
+    <t>Price of private consumption</t>
+  </si>
+  <si>
+    <t>Price of private investment</t>
+  </si>
+  <si>
+    <t>Domestic intermediate inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 output</t>
+  </si>
+  <si>
+    <t>Stage T-2 output</t>
+  </si>
+  <si>
+    <t>Stage T-1 output</t>
+  </si>
+  <si>
+    <t>Stage T-0 output</t>
+  </si>
+  <si>
+    <t>Price of stage T-3 output</t>
+  </si>
+  <si>
+    <t>Price of state T-2 output</t>
+  </si>
+  <si>
+    <t>Price of state T-1 output</t>
+  </si>
+  <si>
+    <t>Price of stage T-0 output</t>
+  </si>
+  <si>
+    <t>Price of commodity input into production</t>
+  </si>
+  <si>
+    <t>Commodity input into production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Real GDP index, Rate of change</t>
+  </si>
+  <si>
+    <t>Per-capita real GDP index, Rate of change</t>
+  </si>
+  <si>
+    <t>Price of domestic production</t>
+  </si>
+  <si>
+    <t>Price of production capital</t>
+  </si>
+  <si>
+    <t>Price of production capital services</t>
+  </si>
+  <si>
+    <t>Nominal wage rate</t>
+  </si>
+  <si>
+    <t>Nominal wage rate absent labor market rigidities</t>
+  </si>
+  <si>
+    <t>Nominal short-term rate, LCY</t>
+  </si>
+  <si>
+    <t>Unconstrained nominal short-term rate, LCY</t>
+  </si>
+  <si>
+    <t>Nominal household rate, LCY</t>
+  </si>
+  <si>
+    <t>Household credit risk</t>
+  </si>
+  <si>
+    <t>Price of final domestic output, Rate of change</t>
+  </si>
+  <si>
+    <t>Price of final domestic output, Rate of change, Point of reference</t>
+  </si>
+  <si>
+    <t>Nominal wage rate, Rate of change</t>
+  </si>
+  <si>
+    <t>Price of consumer goods, Rate of change</t>
+  </si>
+  <si>
+    <t>Household investment, Rate of change</t>
+  </si>
+  <si>
+    <t>Utilization rate of production capital</t>
+  </si>
+  <si>
+    <t>Utilization rate of production capital, Rate of change</t>
+  </si>
+  <si>
+    <t>Stage T-3 output, Rate of change</t>
+  </si>
+  <si>
+    <t>Variable labor, Rate of change</t>
+  </si>
+  <si>
+    <t>Domestic component of household consumption</t>
+  </si>
+  <si>
+    <t>Domestic component of government consumption</t>
+  </si>
+  <si>
+    <t>Domestic component of household investment</t>
+  </si>
+  <si>
+    <t>Auxiliary variable for steady-state calibration of upsilon_0</t>
+  </si>
+  <si>
+    <t>Auxiliary equation for steady-state calibration of nu_0</t>
+  </si>
+  <si>
+    <t>Non-commodity imports</t>
+  </si>
+  <si>
+    <t>Price of non-commodity imports</t>
+  </si>
+  <si>
+    <t>Price of non-commodity imports, Free on board at destinatin point</t>
+  </si>
+  <si>
+    <t>Import content of non-commodity exports</t>
+  </si>
+  <si>
+    <t>Intermediate import inputs into domestic production</t>
+  </si>
+  <si>
+    <t>Domestic content of non-commodity exports</t>
+  </si>
+  <si>
+    <t>Non-commodity exports</t>
+  </si>
+  <si>
+    <t>Commodity exports</t>
+  </si>
+  <si>
+    <t>Price of non-commodity exports</t>
+  </si>
+  <si>
+    <t>Net foreign assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective interest rate and valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for net foreign assets to GDP ratio</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Expectations of nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Financial flows from corporate equity to GDP ratio</t>
+  </si>
+  <si>
+    <t>Price of non-commodity exports, Reference currency</t>
+  </si>
+  <si>
+    <t>Value of non-commodity exports, Reference currency</t>
+  </si>
+  <si>
+    <t>Government debt interest rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government consumption</t>
+  </si>
+  <si>
+    <t>Government debt to GDP ratio</t>
+  </si>
+  <si>
+    <t>Net lump-sum tax rate on wealthy consumers</t>
+  </si>
+  <si>
+    <t>Net lump-sum tax rate on poor consumers</t>
+  </si>
+  <si>
+    <t>Government consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>Import tariff rate</t>
+  </si>
+  <si>
+    <t>Global Productivity Trend Component</t>
+  </si>
+  <si>
+    <t>Global Population Trend Component</t>
+  </si>
+  <si>
+    <t>Global population</t>
+  </si>
+  <si>
+    <t>Global population, Rate of change</t>
+  </si>
+  <si>
+    <t>Global index of non-commodity export prices</t>
+  </si>
+  <si>
+    <t>Global nominal GDP</t>
+  </si>
+  <si>
+    <t>Global real GDP index, Rate of change</t>
+  </si>
+  <si>
+    <t>Global per-capita real GDP index, Rate of change</t>
+  </si>
+  <si>
+    <t>Per-capita private consumption</t>
+  </si>
+  <si>
+    <t>Per-capita gross production</t>
+  </si>
+  <si>
+    <t>Per-capita private consumption</t>
+  </si>
+  <si>
+    <t>Per-capita gross production</t>
+  </si>
+  <si>
+    <t>Long-run level of global commodity production</t>
+  </si>
+  <si>
+    <t>Global commodity demand</t>
+  </si>
+  <si>
+    <t>Excess demand in global commodity market</t>
+  </si>
+  <si>
+    <t>Global price of commodities, Reference currency</t>
+  </si>
+  <si>
+    <t>Global real price of commodities</t>
+  </si>
+  <si>
+    <t>Imports to [aa] from [aa]</t>
+  </si>
+  <si>
+    <t>Imports to [aa] from [bb]</t>
+  </si>
+  <si>
+    <t>Imports to [bb] from [aa]</t>
+  </si>
+  <si>
+    <t>Imports to [bb] from [bb]</t>
+  </si>
+  <si>
+    <t>Area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>Shock to relative population component</t>
+  </si>
+  <si>
+    <t>Shock to share of working age population</t>
+  </si>
+  <si>
+    <t>Shock to labor participation rate</t>
+  </si>
+  <si>
+    <t>Shock to area specific productivity component</t>
+  </si>
+  <si>
+    <t>Shoct to monetary policy reaction function</t>
+  </si>
+  <si>
+    <t>Shock to wage rate</t>
+  </si>
+  <si>
+    <t>Shock to current income</t>
+  </si>
+  <si>
+    <t>Shock to capital prices</t>
+  </si>
+  <si>
+    <t>Interest parity shock</t>
+  </si>
+  <si>
+    <t>Shock to government consumption</t>
+  </si>
+  <si>
+    <t>Shock to type 1 lump-sum taxes</t>
+  </si>
+  <si>
+    <t>Shock to type 2 lump-sum taxes</t>
+  </si>
+  <si>
+    <t>Shock to general import tariff rate</t>
+  </si>
+  <si>
+    <t>Shock to relative population component</t>
+  </si>
+  <si>
+    <t>Shock to share of working age population</t>
+  </si>
+  <si>
+    <t>Shock to labor participation rate</t>
+  </si>
+  <si>
+    <t>Shock to area specific productivity component</t>
+  </si>
+  <si>
+    <t>Shoct to monetary policy reaction function</t>
+  </si>
+  <si>
+    <t>Shock to wage rate</t>
+  </si>
+  <si>
+    <t>Shock to current income</t>
+  </si>
+  <si>
+    <t>Shock to capital prices</t>
+  </si>
+  <si>
+    <t>Interest parity shock</t>
+  </si>
+  <si>
+    <t>Shock to government consumption</t>
+  </si>
+  <si>
+    <t>Shock to type 1 lump-sum taxes</t>
+  </si>
+  <si>
+    <t>Shock to type 2 lump-sum taxes</t>
+  </si>
+  <si>
+    <t>Shock to general import tariff rate</t>
+  </si>
+  <si>
+    <t>Shock to global productivity trend</t>
+  </si>
+  <si>
+    <t>Shock to global population trend</t>
+  </si>
+  <si>
+    <t>Shock to long-run level of global commodity production</t>
+  </si>
+  <si>
+    <t>Shock to global price of commodities</t>
+  </si>
+  <si>
+    <t>Shock to area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>S/S Area specific productivity component</t>
+  </si>
+  <si>
+    <t>S/S Price of private consumption, Rate of change</t>
+  </si>
+  <si>
+    <t>Autoregression in area specific productivity component</t>
+  </si>
+  <si>
+    <t>Household discount factor</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Autoregression in real wage rate</t>
+  </si>
+  <si>
+    <t>Uncertainty discount factor on capital</t>
+  </si>
+  <si>
+    <t>Depreciation of production capital</t>
+  </si>
+  <si>
+    <t>Point of reference in consuptions switch</t>
+  </si>
+  <si>
+    <t>Past consumption in reference consumption parameter</t>
+  </si>
+  <si>
+    <t>Current income in reference consumption parameter</t>
+  </si>
+  <si>
+    <t>Intercept in current wealth utility</t>
+  </si>
+  <si>
+    <t>Slope of current wealth utility</t>
+  </si>
+  <si>
+    <t>Type 1 investment adjustment cost parameter</t>
+  </si>
+  <si>
+    <t>Type 2 investment adjustment cost parameter</t>
+  </si>
+  <si>
+    <t>Level parameter in cost of utilization of production capital</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of cost of utilization of production capital</t>
+  </si>
+  <si>
+    <t>Share of overhead labor</t>
+  </si>
+  <si>
+    <t>Share of labor in stage T-3 production</t>
+  </si>
+  <si>
+    <t>Share of capital services in stage T-2 production</t>
+  </si>
+  <si>
+    <t>Share of commodity inputs in stage T-1 production</t>
+  </si>
+  <si>
+    <t>Share of roundabout intermediates in stage T-0 production</t>
+  </si>
+  <si>
+    <t>Price adjustment cost parameters</t>
+  </si>
+  <si>
+    <t>Monopoly power (markup) of local producers</t>
+  </si>
+  <si>
+    <t>Autoregression in policy rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to CPI</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Markup to cover overhead labor</t>
+  </si>
+  <si>
+    <t>Weight on S/S inflation in inflation indexation</t>
+  </si>
+  <si>
+    <t>Stage T-2 input factor adjustment cost parameter</t>
+  </si>
+  <si>
+    <t>Stage T-1 input factor adjustment cost parameter</t>
+  </si>
+  <si>
+    <t>Pressure relief valve for interest rate lower bound</t>
+  </si>
+  <si>
+    <t>Lower bound on short-term rate</t>
+  </si>
+  <si>
+    <t>Import intensity of non-commodity exports</t>
+  </si>
+  <si>
+    <t>Acceleration in exportable productivity</t>
+  </si>
+  <si>
+    <t>Intercept in household risk function</t>
+  </si>
+  <si>
+    <t>Elasticity of household risk function</t>
+  </si>
+  <si>
+    <t>Weight on model-consistent expectations in exchange rate</t>
+  </si>
+  <si>
+    <t>Share of local commodity production in world commodity production</t>
+  </si>
+  <si>
+    <t>Adjustment cost parameter in stage t-3 production</t>
+  </si>
+  <si>
+    <t>S/S Government debt to GDP ratio</t>
+  </si>
+  <si>
+    <t>S/S Government consumption to GDP ratio</t>
+  </si>
+  <si>
+    <t>S/S General import tariff rate</t>
+  </si>
+  <si>
+    <t>Response in government consumption to government debt</t>
+  </si>
+  <si>
+    <t>Response in type 1 lump-sum tax rate to government debt</t>
+  </si>
+  <si>
+    <t>Autoregression in government consumption</t>
+  </si>
+  <si>
+    <t>Autoregression in type 1 lump-sum tax rate</t>
+  </si>
+  <si>
+    <t>Autoregression in type 2 lump-sum tax rate</t>
+  </si>
+  <si>
+    <t>Autoregression in generate import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>S/S Area specific productivity component</t>
+  </si>
+  <si>
+    <t>S/S Price of private consumption, Rate of change</t>
+  </si>
+  <si>
+    <t>Autoregression in area specific productivity component</t>
+  </si>
+  <si>
+    <t>Household discount factor</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Autoregression in real wage rate</t>
+  </si>
+  <si>
+    <t>Uncertainty discount factor on capital</t>
+  </si>
+  <si>
+    <t>Depreciation of production capital</t>
+  </si>
+  <si>
+    <t>Point of reference in consuptions switch</t>
+  </si>
+  <si>
+    <t>Past consumption in reference consumption parameter</t>
+  </si>
+  <si>
+    <t>Current income in reference consumption parameter</t>
+  </si>
+  <si>
+    <t>Intercept in current wealth utility</t>
+  </si>
+  <si>
+    <t>Slope of current wealth utility</t>
+  </si>
+  <si>
+    <t>Type 1 investment adjustment cost parameter</t>
+  </si>
+  <si>
+    <t>Type 2 investment adjustment cost parameter</t>
+  </si>
+  <si>
+    <t>Level parameter in cost of utilization of production capital</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of cost of utilization of production capital</t>
+  </si>
+  <si>
+    <t>Share of overhead labor</t>
+  </si>
+  <si>
+    <t>Share of labor in stage T-3 production</t>
+  </si>
+  <si>
+    <t>Share of capital services in stage T-2 production</t>
+  </si>
+  <si>
+    <t>Share of commodity inputs in stage T-1 production</t>
+  </si>
+  <si>
+    <t>Share of roundabout intermediates in stage T-0 production</t>
+  </si>
+  <si>
+    <t>Price adjustment cost parameters</t>
+  </si>
+  <si>
+    <t>Monopoly power (markup) of local producers</t>
+  </si>
+  <si>
+    <t>Autoregression in policy rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to CPI</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Markup to cover overhead labor</t>
+  </si>
+  <si>
+    <t>Weight on S/S inflation in inflation indexation</t>
+  </si>
+  <si>
+    <t>Stage T-2 input factor adjustment cost parameter</t>
+  </si>
+  <si>
+    <t>Stage T-1 input factor adjustment cost parameter</t>
+  </si>
+  <si>
+    <t>Pressure relief valve for interest rate lower bound</t>
+  </si>
+  <si>
+    <t>Lower bound on short-term rate</t>
+  </si>
+  <si>
+    <t>Import intensity of non-commodity exports</t>
+  </si>
+  <si>
+    <t>Acceleration in exportable productivity</t>
+  </si>
+  <si>
+    <t>Intercept in household risk function</t>
+  </si>
+  <si>
+    <t>Elasticity of household risk function</t>
+  </si>
+  <si>
+    <t>Weight on model-consistent expectations in exchange rate</t>
+  </si>
+  <si>
+    <t>Share of local commodity production in world commodity production</t>
+  </si>
+  <si>
+    <t>Adjustment cost parameter in stage t-3 production</t>
+  </si>
+  <si>
+    <t>S/S Government debt to GDP ratio</t>
+  </si>
+  <si>
+    <t>S/S Government consumption to GDP ratio</t>
+  </si>
+  <si>
+    <t>S/S General import tariff rate</t>
+  </si>
+  <si>
+    <t>Response in government consumption to government debt</t>
+  </si>
+  <si>
+    <t>Response in type 1 lump-sum tax rate to government debt</t>
+  </si>
+  <si>
+    <t>Autoregression in government consumption</t>
+  </si>
+  <si>
+    <t>Autoregression in type 1 lump-sum tax rate</t>
+  </si>
+  <si>
+    <t>Autoregression in type 2 lump-sum tax rate</t>
+  </si>
+  <si>
+    <t>Autoregression in generate import tariff rate</t>
+  </si>
+  <si>
+    <t>Autoregression in global productivity trend</t>
+  </si>
+  <si>
+    <t>S/S Global productivity trend, Rate of change</t>
+  </si>
+  <si>
+    <t>Autoregression in global population trend</t>
+  </si>
+  <si>
+    <t>S/S Global population trend, Rate of change</t>
+  </si>
+  <si>
+    <t>Global intercept in Euler equation</t>
+  </si>
+  <si>
+    <t>S/S Long-run level of global commodity production</t>
+  </si>
+  <si>
+    <t>Autoregression in long-run level of global commodity production</t>
+  </si>
+  <si>
+    <t>Excess demand elasticity of commodity prices</t>
+  </si>
+  <si>
+    <t>Point of origination import adjustment costs</t>
+  </si>
+  <si>
+    <t>Share of imports from [aa] in total [aa] imports</t>
+  </si>
+  <si>
+    <t>Share of imports from [bb] in total [aa] imports</t>
+  </si>
+  <si>
+    <t>Point of origination import adjustment costs</t>
+  </si>
+  <si>
+    <t>Share of imports from [aa] in total [bb] imports</t>
+  </si>
+  <si>
+    <t>Share of imports from [bb] in total [bb] imports</t>
+  </si>
+  <si>
+    <t>S/S Area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Autoregression in area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Autoregression in area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Autoregression in area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>S/S Autoregression in area specific import tariff rate</t>
+  </si>
+  <si>
+    <t>Corporate equity portfolio share</t>
   </si>
   <si>
     <t>Time trend</t>
@@ -62445,7 +64683,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -62472,11 +64710,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -62497,6 +64736,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -62518,24 +64758,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20058</v>
+        <v>20804</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20419</v>
+        <v>21165</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20420</v>
+        <v>21166</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20421</v>
+        <v>21167</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20452</v>
+        <v>21198</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>20059</v>
+        <v>20805</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -62544,15 +64784,15 @@
         <v>1.01</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20453</v>
+        <v>21199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20060</v>
+        <v>20806</v>
       </c>
       <c r="B3" s="0">
         <v>1.01</v>
@@ -62561,15 +64801,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20454</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20061</v>
+        <v>20807</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -62578,15 +64818,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20455</v>
+        <v>21201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20062</v>
+        <v>20808</v>
       </c>
       <c r="B5" s="0">
         <v>0.65000000000000002</v>
@@ -62595,15 +64835,15 @@
         <v>1.01</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20456</v>
+        <v>21202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20063</v>
+        <v>20809</v>
       </c>
       <c r="B6" s="0">
         <v>0.45499999999999996</v>
@@ -62612,15 +64852,15 @@
         <v>1.01</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20457</v>
+        <v>21203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>20064</v>
+        <v>20810</v>
       </c>
       <c r="B7" s="0">
         <v>0.48017413120078356</v>
@@ -62629,15 +64869,15 @@
         <v>1.0302</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20458</v>
+        <v>21204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20065</v>
+        <v>20811</v>
       </c>
       <c r="B8" s="0">
         <v>0.31990719507853965</v>
@@ -62646,15 +64886,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20459</v>
+        <v>21205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>20066</v>
+        <v>20812</v>
       </c>
       <c r="B9" s="0">
         <v>0.93137254901960809</v>
@@ -62663,15 +64903,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20460</v>
+        <v>21206</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>20067</v>
+        <v>20813</v>
       </c>
       <c r="B10" s="0">
         <v>0.75005208172387428</v>
@@ -62680,15 +64920,15 @@
         <v>0.99999999999999967</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20461</v>
+        <v>21207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>20068</v>
+        <v>20814</v>
       </c>
       <c r="B11" s="0">
         <v>0.22751579812290848</v>
@@ -62697,15 +64937,15 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>20462</v>
+        <v>21208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>20069</v>
+        <v>20815</v>
       </c>
       <c r="B12" s="0">
         <v>0.13564682396971739</v>
@@ -62714,15 +64954,15 @@
         <v>1.0301999999999996</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>20463</v>
+        <v>21209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20070</v>
+        <v>20816</v>
       </c>
       <c r="B13" s="0">
         <v>0.77549033326083816</v>
@@ -62731,15 +64971,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>20464</v>
+        <v>21210</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20071</v>
+        <v>20817</v>
       </c>
       <c r="B14" s="0">
         <v>0.80088649041947246</v>
@@ -62748,15 +64988,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>20465</v>
+        <v>21211</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20072</v>
+        <v>20818</v>
       </c>
       <c r="B15" s="0">
         <v>0.77549033326083805</v>
@@ -62765,15 +65005,15 @@
         <v>1.0611059999999997</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>20466</v>
+        <v>21212</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>20073</v>
+        <v>20819</v>
       </c>
       <c r="B16" s="0">
         <v>1.0834008108460884</v>
@@ -62782,15 +65022,15 @@
         <v>1.0611059999999994</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>20467</v>
+        <v>21213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>20074</v>
+        <v>20820</v>
       </c>
       <c r="B17" s="0">
         <v>1</v>
@@ -62799,15 +65039,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>20468</v>
+        <v>21214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>20075</v>
+        <v>20821</v>
       </c>
       <c r="B18" s="0">
         <v>0.94757291248108255</v>
@@ -62816,15 +65056,15 @@
         <v>0.9518370454978109</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>20469</v>
+        <v>21215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>20076</v>
+        <v>20822</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -62833,15 +65073,15 @@
         <v>1.03</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>20470</v>
+        <v>21216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>20077</v>
+        <v>20823</v>
       </c>
       <c r="B20" s="0">
         <v>1</v>
@@ -62850,15 +65090,15 @@
         <v>1.03</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>20471</v>
+        <v>21217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20078</v>
+        <v>20824</v>
       </c>
       <c r="B21" s="0">
         <v>1.1734393200657407</v>
@@ -62867,15 +65107,15 @@
         <v>1.0301999999999996</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>20472</v>
+        <v>21218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>20079</v>
+        <v>20825</v>
       </c>
       <c r="B22" s="0">
         <v>0.43032105293681411</v>
@@ -62884,15 +65124,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>20473</v>
+        <v>21219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>20080</v>
+        <v>20826</v>
       </c>
       <c r="B23" s="0">
         <v>0.95503898877834914</v>
@@ -62901,15 +65141,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>20474</v>
+        <v>21220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>20081</v>
+        <v>20827</v>
       </c>
       <c r="B24" s="0">
         <v>0.99277559028507734</v>
@@ -62918,15 +65158,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>20475</v>
+        <v>21221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>20082</v>
+        <v>20828</v>
       </c>
       <c r="B25" s="0">
         <v>0.97786610005478414</v>
@@ -62935,15 +65175,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>20476</v>
+        <v>21222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>20083</v>
+        <v>20829</v>
       </c>
       <c r="B26" s="0">
         <v>1.2089224119497868</v>
@@ -62952,15 +65192,15 @@
         <v>1.0299999999999998</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>20477</v>
+        <v>21223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>20084</v>
+        <v>20830</v>
       </c>
       <c r="B27" s="0">
         <v>0.7781653364668204</v>
@@ -62969,15 +65209,15 @@
         <v>1.0299999999999998</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>20478</v>
+        <v>21224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>20085</v>
+        <v>20831</v>
       </c>
       <c r="B28" s="0">
         <v>0.78798561094677044</v>
@@ -62986,15 +65226,15 @@
         <v>1.03</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>20479</v>
+        <v>21225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>20086</v>
+        <v>20832</v>
       </c>
       <c r="B29" s="0">
         <v>0.90909090909090906</v>
@@ -63003,15 +65243,15 @@
         <v>1.03</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>20480</v>
+        <v>21226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>20087</v>
+        <v>20833</v>
       </c>
       <c r="B30" s="0">
         <v>0.99999999999999956</v>
@@ -63020,15 +65260,15 @@
         <v>1.03</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>20481</v>
+        <v>21227</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>20088</v>
+        <v>20834</v>
       </c>
       <c r="B31" s="0">
         <v>0.039114644002191383</v>
@@ -63037,15 +65277,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>20482</v>
+        <v>21228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>20089</v>
+        <v>20835</v>
       </c>
       <c r="B32" s="0">
         <v>0.76977619396312602</v>
@@ -63054,15 +65294,15 @@
         <v>1.0611059999999999</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>20483</v>
+        <v>21229</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>20090</v>
+        <v>20836</v>
       </c>
       <c r="B33" s="0">
         <v>1.0302</v>
@@ -63071,15 +65311,15 @@
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>20484</v>
+        <v>21230</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>20091</v>
+        <v>20837</v>
       </c>
       <c r="B34" s="0">
         <v>1.02</v>
@@ -63088,15 +65328,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>20485</v>
+        <v>21231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>20092</v>
+        <v>20838</v>
       </c>
       <c r="B35" s="0">
         <v>1</v>
@@ -63105,15 +65345,15 @@
         <v>1.03</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>20486</v>
+        <v>21232</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>20093</v>
+        <v>20839</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -63122,15 +65362,15 @@
         <v>1.03</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>20487</v>
+        <v>21233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>20094</v>
+        <v>20840</v>
       </c>
       <c r="B37" s="0">
         <v>0.27838335829053207</v>
@@ -63139,15 +65379,15 @@
         <v>1.03</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>20488</v>
+        <v>21234</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>20095</v>
+        <v>20841</v>
       </c>
       <c r="B38" s="0">
         <v>1.0553277608808433</v>
@@ -63156,15 +65396,15 @@
         <v>1.0505999999999998</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>20489</v>
+        <v>21235</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>20096</v>
+        <v>20842</v>
       </c>
       <c r="B39" s="0">
         <v>1.0553277608808431</v>
@@ -63173,15 +65413,15 @@
         <v>1.0505999999999998</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>20490</v>
+        <v>21236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>20097</v>
+        <v>20843</v>
       </c>
       <c r="B40" s="0">
         <v>1.045472815430879</v>
@@ -63190,15 +65430,15 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>20491</v>
+        <v>21237</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>20098</v>
+        <v>20844</v>
       </c>
       <c r="B41" s="0">
         <v>1.045472815430879</v>
@@ -63207,15 +65447,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>20492</v>
+        <v>21238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>20099</v>
+        <v>20845</v>
       </c>
       <c r="B42" s="0">
         <v>1.045472815430879</v>
@@ -63224,15 +65464,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>20422</v>
+        <v>21168</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>20493</v>
+        <v>21239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>20100</v>
+        <v>20846</v>
       </c>
       <c r="B43" s="0">
         <v>-2.3398962403987351e-18</v>
@@ -63241,15 +65481,15 @@
         <v>2.2279576598290121e-17</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>20423</v>
+        <v>21169</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>20494</v>
+        <v>21240</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>20101</v>
+        <v>20847</v>
       </c>
       <c r="B44" s="0">
         <v>1.03</v>
@@ -63258,15 +65498,15 @@
         <v>1</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>20495</v>
+        <v>21241</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>20102</v>
+        <v>20848</v>
       </c>
       <c r="B45" s="0">
         <v>1.03</v>
@@ -63275,15 +65515,15 @@
         <v>1</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>20496</v>
+        <v>21242</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>20103</v>
+        <v>20849</v>
       </c>
       <c r="B46" s="0">
         <v>1.0506</v>
@@ -63292,15 +65532,15 @@
         <v>1</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>20497</v>
+        <v>21243</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>20104</v>
+        <v>20850</v>
       </c>
       <c r="B47" s="0">
         <v>1.03</v>
@@ -63309,15 +65549,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>20498</v>
+        <v>21244</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>20105</v>
+        <v>20851</v>
       </c>
       <c r="B48" s="0">
         <v>1.0301999999999996</v>
@@ -63326,15 +65566,15 @@
         <v>1</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>20499</v>
+        <v>21245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>20106</v>
+        <v>20852</v>
       </c>
       <c r="B49" s="0">
         <v>1.0327485154480864</v>
@@ -63343,15 +65583,15 @@
         <v>1</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>20500</v>
+        <v>21246</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>20107</v>
+        <v>20853</v>
       </c>
       <c r="B50" s="0">
         <v>1.0301999999999998</v>
@@ -63360,15 +65600,15 @@
         <v>1</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>20501</v>
+        <v>21247</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>20108</v>
+        <v>20854</v>
       </c>
       <c r="B51" s="0">
         <v>1.0301999999999998</v>
@@ -63377,15 +65617,15 @@
         <v>1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>20502</v>
+        <v>21248</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>20109</v>
+        <v>20855</v>
       </c>
       <c r="B52" s="0">
         <v>1.0099999999999998</v>
@@ -63394,15 +65634,15 @@
         <v>1</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>20503</v>
+        <v>21249</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>20110</v>
+        <v>20856</v>
       </c>
       <c r="B53" s="0">
         <v>0.48017413120078356</v>
@@ -63411,15 +65651,15 @@
         <v>1.0302</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>20504</v>
+        <v>21250</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>20111</v>
+        <v>20857</v>
       </c>
       <c r="B54" s="0">
         <v>0.15395523879262521</v>
@@ -63428,15 +65668,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>20505</v>
+        <v>21251</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>20112</v>
+        <v>20858</v>
       </c>
       <c r="B55" s="0">
         <v>0.13564682396971739</v>
@@ -63445,15 +65685,15 @@
         <v>1.0301999999999996</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>20506</v>
+        <v>21252</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>20113</v>
+        <v>20859</v>
       </c>
       <c r="B56" s="0">
         <v>0.85119115718392857</v>
@@ -63462,15 +65702,15 @@
         <v>1</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>20424</v>
+        <v>21170</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>20507</v>
+        <v>21253</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>20114</v>
+        <v>20860</v>
       </c>
       <c r="B57" s="0">
         <v>0.081873697709215446</v>
@@ -63479,15 +65719,15 @@
         <v>1.2870544263624427e-16</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>20425</v>
+        <v>21171</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>20508</v>
+        <v>21254</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>20115</v>
+        <v>20861</v>
       </c>
       <c r="B58" s="0">
         <v>0.41617981218331629</v>
@@ -63496,15 +65736,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>20509</v>
+        <v>21255</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>20116</v>
+        <v>20862</v>
       </c>
       <c r="B59" s="0">
         <v>0.99999999999999944</v>
@@ -63513,15 +65753,15 @@
         <v>1.03</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>20510</v>
+        <v>21256</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>20117</v>
+        <v>20863</v>
       </c>
       <c r="B60" s="0">
         <v>0.99999999999999944</v>
@@ -63530,15 +65770,15 @@
         <v>1.03</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>20511</v>
+        <v>21257</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>20118</v>
+        <v>20864</v>
       </c>
       <c r="B61" s="0">
         <v>0.20808990609165806</v>
@@ -63547,15 +65787,15 @@
         <v>1.0301999999999996</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>20512</v>
+        <v>21258</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>20119</v>
+        <v>20865</v>
       </c>
       <c r="B62" s="0">
         <v>0.20808990609165817</v>
@@ -63564,15 +65804,15 @@
         <v>1.0301999999999996</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>20513</v>
+        <v>21259</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>20120</v>
+        <v>20866</v>
       </c>
       <c r="B63" s="0">
         <v>0.20808990609165795</v>
@@ -63581,15 +65821,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>20514</v>
+        <v>21260</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>20121</v>
+        <v>20867</v>
       </c>
       <c r="B64" s="0">
         <v>0.41617981218331601</v>
@@ -63598,15 +65838,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>20515</v>
+        <v>21261</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>20122</v>
+        <v>20868</v>
       </c>
       <c r="B65" s="0">
         <v>0.039114644002191362</v>
@@ -63615,15 +65855,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>20516</v>
+        <v>21262</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>20123</v>
+        <v>20869</v>
       </c>
       <c r="B66" s="0">
         <v>0.99999999999999967</v>
@@ -63632,15 +65872,15 @@
         <v>1.03</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>20426</v>
+        <v>21172</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>20517</v>
+        <v>21263</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>20124</v>
+        <v>20870</v>
       </c>
       <c r="B67" s="0">
         <v>2.2958051019532589e-17</v>
@@ -63649,15 +65889,15 @@
         <v>-2.2249398987181968e-16</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>20427</v>
+        <v>21173</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>20518</v>
+        <v>21264</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>20125</v>
+        <v>20871</v>
       </c>
       <c r="B68" s="0">
         <v>1.045472815430879</v>
@@ -63666,15 +65906,15 @@
         <v>1</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>20428</v>
+        <v>21174</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>20519</v>
+        <v>21265</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>20126</v>
+        <v>20872</v>
       </c>
       <c r="B69" s="0">
         <v>6.2182678513480252e-18</v>
@@ -63683,15 +65923,15 @@
         <v>-8.9686927157855822e-19</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>20429</v>
+        <v>21175</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>20520</v>
+        <v>21266</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>20127</v>
+        <v>20873</v>
       </c>
       <c r="B70" s="0">
         <v>1</v>
@@ -63700,15 +65940,15 @@
         <v>1</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>20430</v>
+        <v>21176</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>20521</v>
+        <v>21267</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>20128</v>
+        <v>20874</v>
       </c>
       <c r="B71" s="0">
         <v>1</v>
@@ -63717,15 +65957,15 @@
         <v>1</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>20430</v>
+        <v>21176</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>20522</v>
+        <v>21268</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>20129</v>
+        <v>20875</v>
       </c>
       <c r="B72" s="0">
         <v>1</v>
@@ -63734,15 +65974,15 @@
         <v>1</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>20430</v>
+        <v>21176</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>20523</v>
+        <v>21269</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>20130</v>
+        <v>20876</v>
       </c>
       <c r="B73" s="0">
         <v>-3.5714815127557003e-17</v>
@@ -63751,15 +65991,15 @@
         <v>-1.2518549089767779e-17</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>20431</v>
+        <v>21177</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>20524</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>20131</v>
+        <v>20877</v>
       </c>
       <c r="B74" s="0">
         <v>0.99999999999999956</v>
@@ -63768,15 +66008,15 @@
         <v>1.03</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>20432</v>
+        <v>21178</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>20525</v>
+        <v>21271</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>20132</v>
+        <v>20878</v>
       </c>
       <c r="B75" s="0">
         <v>0.41617981218331584</v>
@@ -63785,15 +66025,15 @@
         <v>1.0611059999999999</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>20432</v>
+        <v>21178</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>20526</v>
+        <v>21272</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>20133</v>
+        <v>20879</v>
       </c>
       <c r="B76" s="0">
         <v>1.045472815430879</v>
@@ -63802,15 +66042,15 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>20432</v>
+        <v>21178</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>20527</v>
+        <v>21273</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>20134</v>
+        <v>20880</v>
       </c>
       <c r="B77" s="0">
         <v>1</v>
@@ -63819,15 +66059,15 @@
         <v>1.03</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>20432</v>
+        <v>21178</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>20528</v>
+        <v>21274</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>20135</v>
+        <v>20881</v>
       </c>
       <c r="B78" s="0">
         <v>0.15395523879262521</v>
@@ -63836,15 +66076,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>20432</v>
+        <v>21178</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>20529</v>
+        <v>21275</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>20136</v>
+        <v>20882</v>
       </c>
       <c r="B79" s="0">
         <v>0.40000000000000002</v>
@@ -63853,15 +66093,15 @@
         <v>6.5739729489184013e-18</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>20433</v>
+        <v>21179</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>20530</v>
+        <v>21276</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>20137</v>
+        <v>20883</v>
       </c>
       <c r="B80" s="0">
         <v>0.31117632161107323</v>
@@ -63870,15 +66110,15 @@
         <v>-4.8111629165360211e-17</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>20433</v>
+        <v>21179</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>20531</v>
+        <v>21277</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>20138</v>
+        <v>20884</v>
       </c>
       <c r="B81" s="0">
         <v>5.4849785982714638e-22</v>
@@ -63887,15 +66127,15 @@
         <v>-2.0162714985355613e-22</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>20433</v>
+        <v>21179</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>20532</v>
+        <v>21278</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>20139</v>
+        <v>20885</v>
       </c>
       <c r="B82" s="0">
         <v>1.0301999999999998</v>
@@ -63904,15 +66144,15 @@
         <v>1</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>20434</v>
+        <v>21180</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>20533</v>
+        <v>21279</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>20140</v>
+        <v>20886</v>
       </c>
       <c r="B83" s="0">
         <v>6.3985639367677447e-20</v>
@@ -63921,15 +66161,15 @@
         <v>-2.5003437062115958e-20</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>20435</v>
+        <v>21181</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>20534</v>
+        <v>21280</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>20141</v>
+        <v>20887</v>
       </c>
       <c r="B84" s="0">
         <v>1</v>
@@ -63938,15 +66178,15 @@
         <v>1.01</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>20535</v>
+        <v>21281</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>20142</v>
+        <v>20888</v>
       </c>
       <c r="B85" s="0">
         <v>1.01</v>
@@ -63955,15 +66195,15 @@
         <v>1</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>20536</v>
+        <v>21282</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>20143</v>
+        <v>20889</v>
       </c>
       <c r="B86" s="0">
         <v>1</v>
@@ -63972,15 +66212,15 @@
         <v>1</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>20537</v>
+        <v>21283</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>20144</v>
+        <v>20890</v>
       </c>
       <c r="B87" s="0">
         <v>0.65000000000000002</v>
@@ -63989,15 +66229,15 @@
         <v>1.01</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>20538</v>
+        <v>21284</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>20145</v>
+        <v>20891</v>
       </c>
       <c r="B88" s="0">
         <v>0.45499999999999996</v>
@@ -64006,15 +66246,15 @@
         <v>1.01</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>20539</v>
+        <v>21285</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>20146</v>
+        <v>20892</v>
       </c>
       <c r="B89" s="0">
         <v>0.48017413120078328</v>
@@ -64023,15 +66263,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>20540</v>
+        <v>21286</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>20147</v>
+        <v>20893</v>
       </c>
       <c r="B90" s="0">
         <v>0.3199071950785396</v>
@@ -64040,15 +66280,15 @@
         <v>1.0302</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>20541</v>
+        <v>21287</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>20148</v>
+        <v>20894</v>
       </c>
       <c r="B91" s="0">
         <v>0.93137254901960798</v>
@@ -64057,15 +66297,15 @@
         <v>1</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>20542</v>
+        <v>21288</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>20149</v>
+        <v>20895</v>
       </c>
       <c r="B92" s="0">
         <v>0.75005208172387461</v>
@@ -64074,15 +66314,15 @@
         <v>1</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>20543</v>
+        <v>21289</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>20150</v>
+        <v>20896</v>
       </c>
       <c r="B93" s="0">
         <v>0.22751579812290865</v>
@@ -64091,15 +66331,15 @@
         <v>1.0100000000000002</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>20544</v>
+        <v>21290</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>20151</v>
+        <v>20897</v>
       </c>
       <c r="B94" s="0">
         <v>0.13564682396971758</v>
@@ -64108,15 +66348,15 @@
         <v>1.0302000000000004</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>20545</v>
+        <v>21291</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>20152</v>
+        <v>20898</v>
       </c>
       <c r="B95" s="0">
         <v>0.77549033326083772</v>
@@ -64125,15 +66365,15 @@
         <v>1.0302000000000002</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>20546</v>
+        <v>21292</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>20153</v>
+        <v>20899</v>
       </c>
       <c r="B96" s="0">
         <v>0.80088649041947202</v>
@@ -64142,15 +66382,15 @@
         <v>1.0302000000000002</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>20547</v>
+        <v>21293</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>20154</v>
+        <v>20900</v>
       </c>
       <c r="B97" s="0">
         <v>0.77549033326083794</v>
@@ -64159,15 +66399,15 @@
         <v>1.0611059999999999</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>20548</v>
+        <v>21294</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>20155</v>
+        <v>20901</v>
       </c>
       <c r="B98" s="0">
         <v>1.0834008108460884</v>
@@ -64176,15 +66416,15 @@
         <v>1.0611060000000003</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>20549</v>
+        <v>21295</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>20156</v>
+        <v>20902</v>
       </c>
       <c r="B99" s="0">
         <v>1</v>
@@ -64193,15 +66433,15 @@
         <v>1</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>20550</v>
+        <v>21296</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>20157</v>
+        <v>20903</v>
       </c>
       <c r="B100" s="0">
         <v>0.947572912481083</v>
@@ -64210,15 +66450,15 @@
         <v>0.9518370454978109</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>20551</v>
+        <v>21297</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>20158</v>
+        <v>20904</v>
       </c>
       <c r="B101" s="0">
         <v>1</v>
@@ -64227,15 +66467,15 @@
         <v>1.03</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>20552</v>
+        <v>21298</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>20159</v>
+        <v>20905</v>
       </c>
       <c r="B102" s="0">
         <v>1</v>
@@ -64244,15 +66484,15 @@
         <v>1.03</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>20553</v>
+        <v>21299</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>20160</v>
+        <v>20906</v>
       </c>
       <c r="B103" s="0">
         <v>1.1734393200657407</v>
@@ -64261,15 +66501,15 @@
         <v>1.0302</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>20554</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>20161</v>
+        <v>20907</v>
       </c>
       <c r="B104" s="0">
         <v>0.43032105293681411</v>
@@ -64278,15 +66518,15 @@
         <v>1.0302</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>20555</v>
+        <v>21301</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>20162</v>
+        <v>20908</v>
       </c>
       <c r="B105" s="0">
         <v>0.95503898877834903</v>
@@ -64295,15 +66535,15 @@
         <v>1.0302</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>20556</v>
+        <v>21302</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>20163</v>
+        <v>20909</v>
       </c>
       <c r="B106" s="0">
         <v>0.99277559028507689</v>
@@ -64312,15 +66552,15 @@
         <v>1.0302000000000002</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>20557</v>
+        <v>21303</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>20164</v>
+        <v>20910</v>
       </c>
       <c r="B107" s="0">
         <v>0.97786610005478436</v>
@@ -64329,15 +66569,15 @@
         <v>1.0302</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>20558</v>
+        <v>21304</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>20165</v>
+        <v>20911</v>
       </c>
       <c r="B108" s="0">
         <v>1.2089224119497868</v>
@@ -64346,15 +66586,15 @@
         <v>1.03</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>20559</v>
+        <v>21305</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>20166</v>
+        <v>20912</v>
       </c>
       <c r="B109" s="0">
         <v>0.7781653364668204</v>
@@ -64363,15 +66603,15 @@
         <v>1.03</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>20560</v>
+        <v>21306</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>20167</v>
+        <v>20913</v>
       </c>
       <c r="B110" s="0">
         <v>0.78798561094677078</v>
@@ -64380,15 +66620,15 @@
         <v>1.0299999999999998</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>20561</v>
+        <v>21307</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>20168</v>
+        <v>20914</v>
       </c>
       <c r="B111" s="0">
         <v>0.90909090909090906</v>
@@ -64397,15 +66637,15 @@
         <v>1.03</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>20562</v>
+        <v>21308</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>20169</v>
+        <v>20915</v>
       </c>
       <c r="B112" s="0">
         <v>1.0000000000000007</v>
@@ -64414,15 +66654,15 @@
         <v>1.0300000000000002</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>20563</v>
+        <v>21309</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>20170</v>
+        <v>20916</v>
       </c>
       <c r="B113" s="0">
         <v>0.039114644002191348</v>
@@ -64431,15 +66671,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>20564</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>20171</v>
+        <v>20917</v>
       </c>
       <c r="B114" s="0">
         <v>0.76977619396312624</v>
@@ -64448,15 +66688,15 @@
         <v>1.0611060000000001</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>20565</v>
+        <v>21311</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>20172</v>
+        <v>20918</v>
       </c>
       <c r="B115" s="0">
         <v>1.0302</v>
@@ -64465,15 +66705,15 @@
         <v>1</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>20566</v>
+        <v>21312</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>20173</v>
+        <v>20919</v>
       </c>
       <c r="B116" s="0">
         <v>1.02</v>
@@ -64482,15 +66722,15 @@
         <v>1</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>20567</v>
+        <v>21313</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>20174</v>
+        <v>20920</v>
       </c>
       <c r="B117" s="0">
         <v>1</v>
@@ -64499,15 +66739,15 @@
         <v>1.03</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>20568</v>
+        <v>21314</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>20175</v>
+        <v>20921</v>
       </c>
       <c r="B118" s="0">
         <v>1</v>
@@ -64516,15 +66756,15 @@
         <v>1.03</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>20569</v>
+        <v>21315</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>20176</v>
+        <v>20922</v>
       </c>
       <c r="B119" s="0">
         <v>0.27838335829053218</v>
@@ -64533,15 +66773,15 @@
         <v>1.0299999999999998</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>20570</v>
+        <v>21316</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>20177</v>
+        <v>20923</v>
       </c>
       <c r="B120" s="0">
         <v>1.0553277608808425</v>
@@ -64550,15 +66790,15 @@
         <v>1.0505999999999998</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>20571</v>
+        <v>21317</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>20178</v>
+        <v>20924</v>
       </c>
       <c r="B121" s="0">
         <v>1.0553277608808425</v>
@@ -64567,15 +66807,15 @@
         <v>1.0505999999999998</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>20572</v>
+        <v>21318</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>20179</v>
+        <v>20925</v>
       </c>
       <c r="B122" s="0">
         <v>1.045472815430879</v>
@@ -64584,15 +66824,15 @@
         <v>1</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>20573</v>
+        <v>21319</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>20180</v>
+        <v>20926</v>
       </c>
       <c r="B123" s="0">
         <v>1.045472815430879</v>
@@ -64601,15 +66841,15 @@
         <v>1</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>20574</v>
+        <v>21320</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>20181</v>
+        <v>20927</v>
       </c>
       <c r="B124" s="0">
         <v>1.045472815430879</v>
@@ -64618,15 +66858,15 @@
         <v>1</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>20436</v>
+        <v>21182</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>20575</v>
+        <v>21321</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>20182</v>
+        <v>20928</v>
       </c>
       <c r="B125" s="0">
         <v>2.3401999333682621e-18</v>
@@ -64635,15 +66875,15 @@
         <v>-2.2279531209518746e-17</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>20437</v>
+        <v>21183</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>20576</v>
+        <v>21322</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>20183</v>
+        <v>20929</v>
       </c>
       <c r="B126" s="0">
         <v>1.03</v>
@@ -64652,15 +66892,15 @@
         <v>1</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>20577</v>
+        <v>21323</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>20184</v>
+        <v>20930</v>
       </c>
       <c r="B127" s="0">
         <v>1.03</v>
@@ -64669,15 +66909,15 @@
         <v>1</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>20578</v>
+        <v>21324</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>20185</v>
+        <v>20931</v>
       </c>
       <c r="B128" s="0">
         <v>1.0505999999999998</v>
@@ -64686,15 +66926,15 @@
         <v>1</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>20579</v>
+        <v>21325</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>20186</v>
+        <v>20932</v>
       </c>
       <c r="B129" s="0">
         <v>1.03</v>
@@ -64703,15 +66943,15 @@
         <v>1</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>20580</v>
+        <v>21326</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>20187</v>
+        <v>20933</v>
       </c>
       <c r="B130" s="0">
         <v>1.0302000000000004</v>
@@ -64720,15 +66960,15 @@
         <v>1</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>20581</v>
+        <v>21327</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>20188</v>
+        <v>20934</v>
       </c>
       <c r="B131" s="0">
         <v>1.0327485154480867</v>
@@ -64737,15 +66977,15 @@
         <v>1</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>20582</v>
+        <v>21328</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>20189</v>
+        <v>20935</v>
       </c>
       <c r="B132" s="0">
         <v>1.0302</v>
@@ -64754,15 +66994,15 @@
         <v>1</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>20583</v>
+        <v>21329</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>20190</v>
+        <v>20936</v>
       </c>
       <c r="B133" s="0">
         <v>1.0302</v>
@@ -64771,15 +67011,15 @@
         <v>1</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>20584</v>
+        <v>21330</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>20191</v>
+        <v>20937</v>
       </c>
       <c r="B134" s="0">
         <v>1.01</v>
@@ -64788,15 +67028,15 @@
         <v>1</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>20585</v>
+        <v>21331</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>20192</v>
+        <v>20938</v>
       </c>
       <c r="B135" s="0">
         <v>0.48017413120078328</v>
@@ -64805,15 +67045,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>20586</v>
+        <v>21332</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>20193</v>
+        <v>20939</v>
       </c>
       <c r="B136" s="0">
         <v>0.15395523879262527</v>
@@ -64822,15 +67062,15 @@
         <v>1.0302000000000002</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>20587</v>
+        <v>21333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>20194</v>
+        <v>20940</v>
       </c>
       <c r="B137" s="0">
         <v>0.13564682396971758</v>
@@ -64839,15 +67079,15 @@
         <v>1.0302000000000004</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>20588</v>
+        <v>21334</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>20195</v>
+        <v>20941</v>
       </c>
       <c r="B138" s="0">
         <v>0.85119115718392835</v>
@@ -64856,15 +67096,15 @@
         <v>1</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>20438</v>
+        <v>21184</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>20589</v>
+        <v>21335</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>20196</v>
+        <v>20942</v>
       </c>
       <c r="B139" s="0">
         <v>0.081873697709215223</v>
@@ -64873,15 +67113,15 @@
         <v>-1.274034804762989e-16</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>20439</v>
+        <v>21185</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>20590</v>
+        <v>21336</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>20197</v>
+        <v>20943</v>
       </c>
       <c r="B140" s="0">
         <v>0.41617981218331601</v>
@@ -64890,15 +67130,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>20591</v>
+        <v>21337</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>20198</v>
+        <v>20944</v>
       </c>
       <c r="B141" s="0">
         <v>1.0000000000000004</v>
@@ -64907,15 +67147,15 @@
         <v>1.0300000000000002</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>20592</v>
+        <v>21338</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>20199</v>
+        <v>20945</v>
       </c>
       <c r="B142" s="0">
         <v>1.0000000000000007</v>
@@ -64924,15 +67164,15 @@
         <v>1.0300000000000002</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>20593</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>20200</v>
+        <v>20946</v>
       </c>
       <c r="B143" s="0">
         <v>0.20808990609165806</v>
@@ -64941,15 +67181,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>20594</v>
+        <v>21340</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>20201</v>
+        <v>20947</v>
       </c>
       <c r="B144" s="0">
         <v>0.20808990609165795</v>
@@ -64958,15 +67198,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>20595</v>
+        <v>21341</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>20202</v>
+        <v>20948</v>
       </c>
       <c r="B145" s="0">
         <v>0.20808990609165817</v>
@@ -64975,15 +67215,15 @@
         <v>1.0302</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>20596</v>
+        <v>21342</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>20203</v>
+        <v>20949</v>
       </c>
       <c r="B146" s="0">
         <v>0.41617981218331623</v>
@@ -64992,15 +67232,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>20597</v>
+        <v>21343</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>20204</v>
+        <v>20950</v>
       </c>
       <c r="B147" s="0">
         <v>0.039114644002191362</v>
@@ -65009,15 +67249,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>20598</v>
+        <v>21344</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>20205</v>
+        <v>20951</v>
       </c>
       <c r="B148" s="0">
         <v>1.0000000000000004</v>
@@ -65026,15 +67266,15 @@
         <v>1.03</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>20440</v>
+        <v>21186</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>20599</v>
+        <v>21345</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>20206</v>
+        <v>20952</v>
       </c>
       <c r="B149" s="0">
         <v>-2.2950665278966949e-17</v>
@@ -65043,15 +67283,15 @@
         <v>2.2248945221350706e-16</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>20441</v>
+        <v>21187</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>20600</v>
+        <v>21346</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>20207</v>
+        <v>20953</v>
       </c>
       <c r="B150" s="0">
         <v>1.0454728154308792</v>
@@ -65060,15 +67300,15 @@
         <v>1</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>20442</v>
+        <v>21188</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>20601</v>
+        <v>21347</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>20208</v>
+        <v>20954</v>
       </c>
       <c r="B151" s="0">
         <v>3.1084514996550959e-20</v>
@@ -65077,15 +67317,15 @@
         <v>-9.9238105455867303e-21</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>20443</v>
+        <v>21189</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>20602</v>
+        <v>21348</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>20209</v>
+        <v>20955</v>
       </c>
       <c r="B152" s="0">
         <v>1.0000000000000011</v>
@@ -65094,15 +67334,15 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>20444</v>
+        <v>21190</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>20603</v>
+        <v>21349</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>20210</v>
+        <v>20956</v>
       </c>
       <c r="B153" s="0">
         <v>1.0000000000000011</v>
@@ -65111,15 +67351,15 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>20444</v>
+        <v>21190</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>20604</v>
+        <v>21350</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>20211</v>
+        <v>20957</v>
       </c>
       <c r="B154" s="0">
         <v>1.0000000000000002</v>
@@ -65128,15 +67368,15 @@
         <v>1</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>20444</v>
+        <v>21190</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>20605</v>
+        <v>21351</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>20212</v>
+        <v>20958</v>
       </c>
       <c r="B155" s="0">
         <v>3.9752411364095913e-17</v>
@@ -65145,15 +67385,15 @@
         <v>1.3654320238260004e-17</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>20445</v>
+        <v>21191</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>20606</v>
+        <v>21352</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>20213</v>
+        <v>20959</v>
       </c>
       <c r="B156" s="0">
         <v>0.99999999999999922</v>
@@ -65162,15 +67402,15 @@
         <v>1.0299999999999998</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>20446</v>
+        <v>21192</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>20607</v>
+        <v>21353</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>20214</v>
+        <v>20960</v>
       </c>
       <c r="B157" s="0">
         <v>0.4161798121833159</v>
@@ -65179,15 +67419,15 @@
         <v>1.0611059999999997</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>20446</v>
+        <v>21192</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>20608</v>
+        <v>21354</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>20215</v>
+        <v>20961</v>
       </c>
       <c r="B158" s="0">
         <v>1.045472815430879</v>
@@ -65196,15 +67436,15 @@
         <v>1</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>20446</v>
+        <v>21192</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>20609</v>
+        <v>21355</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>20216</v>
+        <v>20962</v>
       </c>
       <c r="B159" s="0">
         <v>1</v>
@@ -65213,15 +67453,15 @@
         <v>1.03</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>20446</v>
+        <v>21192</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>20610</v>
+        <v>21356</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>20217</v>
+        <v>20963</v>
       </c>
       <c r="B160" s="0">
         <v>0.15395523879262527</v>
@@ -65230,15 +67470,15 @@
         <v>1.0302</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>20446</v>
+        <v>21192</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>20611</v>
+        <v>21357</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>20218</v>
+        <v>20964</v>
       </c>
       <c r="B161" s="0">
         <v>0.40000000000000002</v>
@@ -65247,15 +67487,15 @@
         <v>1.304940701648108e-18</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>20447</v>
+        <v>21193</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>20612</v>
+        <v>21358</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>20219</v>
+        <v>20965</v>
       </c>
       <c r="B162" s="0">
         <v>0.31117632161107334</v>
@@ -65264,15 +67504,15 @@
         <v>6.1034880279559534e-17</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>20447</v>
+        <v>21193</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>20613</v>
+        <v>21359</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>20220</v>
+        <v>20966</v>
       </c>
       <c r="B163" s="0">
         <v>3.4036665339349087e-22</v>
@@ -65281,15 +67521,15 @@
         <v>-1.1917329504497867e-22</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>20447</v>
+        <v>21193</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>20614</v>
+        <v>21360</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>20221</v>
+        <v>20967</v>
       </c>
       <c r="B164" s="0">
         <v>1.0302</v>
@@ -65298,15 +67538,15 @@
         <v>1</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>20448</v>
+        <v>21194</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>20615</v>
+        <v>21361</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>20222</v>
+        <v>20968</v>
       </c>
       <c r="B165" s="0">
         <v>7.7795705462331401e-20</v>
@@ -65315,15 +67555,15 @@
         <v>-2.8956681637382108e-20</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>20449</v>
+        <v>21195</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>20616</v>
+        <v>21362</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>20223</v>
+        <v>20969</v>
       </c>
       <c r="B166" s="0">
         <v>1</v>
@@ -65332,15 +67572,15 @@
         <v>1.02</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>20617</v>
+        <v>21363</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>20224</v>
+        <v>20970</v>
       </c>
       <c r="B167" s="0">
         <v>1</v>
@@ -65349,15 +67589,15 @@
         <v>1.01</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>20618</v>
+        <v>21364</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>20225</v>
+        <v>20971</v>
       </c>
       <c r="B168" s="0">
         <v>2</v>
@@ -65366,15 +67606,15 @@
         <v>1.01</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>20619</v>
+        <v>21365</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>20226</v>
+        <v>20972</v>
       </c>
       <c r="B169" s="0">
         <v>1.01</v>
@@ -65383,15 +67623,15 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>20620</v>
+        <v>21366</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>20227</v>
+        <v>20973</v>
       </c>
       <c r="B170" s="0">
         <v>0.99999999999999956</v>
@@ -65400,15 +67640,15 @@
         <v>1.03</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>20621</v>
+        <v>21367</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>20228</v>
+        <v>20974</v>
       </c>
       <c r="B171" s="0">
         <v>1.5395523879262514</v>
@@ -65417,15 +67657,15 @@
         <v>1.0611059999999999</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>20622</v>
+        <v>21368</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>20229</v>
+        <v>20975</v>
       </c>
       <c r="B172" s="0">
         <v>1.0302000000000007</v>
@@ -65434,15 +67674,15 @@
         <v>1</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>20623</v>
+        <v>21369</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>20230</v>
+        <v>20976</v>
       </c>
       <c r="B173" s="0">
         <v>1.0200000000000007</v>
@@ -65451,15 +67691,15 @@
         <v>1</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>20624</v>
+        <v>21370</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>20231</v>
+        <v>20977</v>
       </c>
       <c r="B174" s="0">
         <v>1</v>
@@ -65468,15 +67708,15 @@
         <v>1</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>20625</v>
+        <v>21371</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>20232</v>
+        <v>20978</v>
       </c>
       <c r="B175" s="0">
         <v>1</v>
@@ -65485,15 +67725,15 @@
         <v>1</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>20626</v>
+        <v>21372</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>20233</v>
+        <v>20979</v>
       </c>
       <c r="B176" s="0">
         <v>0.99999999999999944</v>
@@ -65502,15 +67742,15 @@
         <v>1</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>20627</v>
+        <v>21373</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>20234</v>
+        <v>20980</v>
       </c>
       <c r="B177" s="0">
         <v>1.0000000000000002</v>
@@ -65519,15 +67759,15 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>20628</v>
+        <v>21374</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>20235</v>
+        <v>20981</v>
       </c>
       <c r="B178" s="0">
         <v>0.078229288004382738</v>
@@ -65536,15 +67776,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>20629</v>
+        <v>21375</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>20236</v>
+        <v>20982</v>
       </c>
       <c r="B179" s="0">
         <v>0.078229288004382738</v>
@@ -65553,15 +67793,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>20630</v>
+        <v>21376</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>20237</v>
+        <v>20983</v>
       </c>
       <c r="B180" s="0">
         <v>1</v>
@@ -65570,15 +67810,15 @@
         <v>1</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>20631</v>
+        <v>21377</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>20238</v>
+        <v>20984</v>
       </c>
       <c r="B181" s="0">
         <v>0.99999999999999956</v>
@@ -65587,15 +67827,15 @@
         <v>1.0299999999999998</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>20632</v>
+        <v>21378</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>20239</v>
+        <v>20985</v>
       </c>
       <c r="B182" s="0">
         <v>1</v>
@@ -65604,15 +67844,15 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>20633</v>
+        <v>21379</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>20240</v>
+        <v>20986</v>
       </c>
       <c r="B183" s="0">
         <v>0.20808990609165809</v>
@@ -65621,15 +67861,15 @@
         <v>1.0301999999999996</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>20634</v>
+        <v>21380</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>20241</v>
+        <v>20987</v>
       </c>
       <c r="B184" s="0">
         <v>0.20808990609165814</v>
@@ -65638,15 +67878,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>20635</v>
+        <v>21381</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>20242</v>
+        <v>20988</v>
       </c>
       <c r="B185" s="0">
         <v>0.20808990609165795</v>
@@ -65655,15 +67895,15 @@
         <v>1.0301999999999998</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>20636</v>
+        <v>21382</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>20243</v>
+        <v>20989</v>
       </c>
       <c r="B186" s="0">
         <v>0.20808990609165806</v>
@@ -65672,15 +67912,15 @@
         <v>1.0302</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>20450</v>
+        <v>21196</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>20637</v>
+        <v>21383</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>20244</v>
+        <v>20990</v>
       </c>
       <c r="B187" s="0">
         <v>3.3374949476788292e-20</v>
@@ -65689,15 +67929,15 @@
         <v>-1.2935586018370092e-20</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>20638</v>
+        <v>21384</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>20245</v>
+        <v>20991</v>
       </c>
       <c r="B188" s="0">
         <v>3.0610573842268619e-20</v>
@@ -65706,15 +67946,15 @@
         <v>-1.2067813843967795e-20</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>20638</v>
+        <v>21384</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>20246</v>
+        <v>20992</v>
       </c>
       <c r="B189" s="0">
         <v>4.0315732922825608e-20</v>
@@ -65723,15 +67963,15 @@
         <v>-1.4924342965044821e-20</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>20638</v>
+        <v>21384</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>20247</v>
+        <v>20993</v>
       </c>
       <c r="B190" s="0">
         <v>3.74798972239012e-20</v>
@@ -65740,15 +67980,15 @@
         <v>-1.4032313383181833e-20</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>20638</v>
+        <v>21384</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>20248</v>
+        <v>20994</v>
       </c>
       <c r="B191" s="0">
         <v>0</v>
@@ -65757,15 +67997,15 @@
         <v>0</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>20639</v>
+        <v>21385</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>20249</v>
+        <v>20995</v>
       </c>
       <c r="B192" s="0">
         <v>0</v>
@@ -65774,15 +68014,15 @@
         <v>0</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>20640</v>
+        <v>21386</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>20250</v>
+        <v>20996</v>
       </c>
       <c r="B193" s="0">
         <v>0</v>
@@ -65791,15 +68031,15 @@
         <v>0</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>20641</v>
+        <v>21387</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>20251</v>
+        <v>20997</v>
       </c>
       <c r="B194" s="0">
         <v>0</v>
@@ -65808,15 +68048,15 @@
         <v>0</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>20642</v>
+        <v>21388</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>20252</v>
+        <v>20998</v>
       </c>
       <c r="B195" s="0">
         <v>0</v>
@@ -65825,15 +68065,15 @@
         <v>0</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>20643</v>
+        <v>21389</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>20253</v>
+        <v>20999</v>
       </c>
       <c r="B196" s="0">
         <v>0</v>
@@ -65842,15 +68082,15 @@
         <v>0</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>20644</v>
+        <v>21390</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>20254</v>
+        <v>21000</v>
       </c>
       <c r="B197" s="0">
         <v>0</v>
@@ -65859,15 +68099,15 @@
         <v>0</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>20645</v>
+        <v>21391</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>20255</v>
+        <v>21001</v>
       </c>
       <c r="B198" s="0">
         <v>0</v>
@@ -65876,15 +68116,15 @@
         <v>0</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>20646</v>
+        <v>21392</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>20256</v>
+        <v>21002</v>
       </c>
       <c r="B199" s="0">
         <v>0</v>
@@ -65893,15 +68133,15 @@
         <v>0</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>20647</v>
+        <v>21393</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>20257</v>
+        <v>21003</v>
       </c>
       <c r="B200" s="0">
         <v>0</v>
@@ -65910,15 +68150,15 @@
         <v>0</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>20648</v>
+        <v>21394</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>20258</v>
+        <v>21004</v>
       </c>
       <c r="B201" s="0">
         <v>0</v>
@@ -65927,15 +68167,15 @@
         <v>0</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>20649</v>
+        <v>21395</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>20259</v>
+        <v>21005</v>
       </c>
       <c r="B202" s="0">
         <v>0</v>
@@ -65944,15 +68184,15 @@
         <v>0</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>20650</v>
+        <v>21396</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>20260</v>
+        <v>21006</v>
       </c>
       <c r="B203" s="0">
         <v>0</v>
@@ -65961,15 +68201,15 @@
         <v>0</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>20651</v>
+        <v>21397</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>20261</v>
+        <v>21007</v>
       </c>
       <c r="B204" s="0">
         <v>0</v>
@@ -65978,15 +68218,15 @@
         <v>0</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>20652</v>
+        <v>21398</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>20262</v>
+        <v>21008</v>
       </c>
       <c r="B205" s="0">
         <v>0</v>
@@ -65995,15 +68235,15 @@
         <v>0</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>20653</v>
+        <v>21399</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>20263</v>
+        <v>21009</v>
       </c>
       <c r="B206" s="0">
         <v>0</v>
@@ -66012,15 +68252,15 @@
         <v>0</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>20654</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>20264</v>
+        <v>21010</v>
       </c>
       <c r="B207" s="0">
         <v>0</v>
@@ -66029,15 +68269,15 @@
         <v>0</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>20655</v>
+        <v>21401</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>20265</v>
+        <v>21011</v>
       </c>
       <c r="B208" s="0">
         <v>0</v>
@@ -66046,15 +68286,15 @@
         <v>0</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>20656</v>
+        <v>21402</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>20266</v>
+        <v>21012</v>
       </c>
       <c r="B209" s="0">
         <v>0</v>
@@ -66063,15 +68303,15 @@
         <v>0</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>20657</v>
+        <v>21403</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>20267</v>
+        <v>21013</v>
       </c>
       <c r="B210" s="0">
         <v>0</v>
@@ -66080,15 +68320,15 @@
         <v>0</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>20658</v>
+        <v>21404</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>20268</v>
+        <v>21014</v>
       </c>
       <c r="B211" s="0">
         <v>0</v>
@@ -66097,15 +68337,15 @@
         <v>0</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>20659</v>
+        <v>21405</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>20269</v>
+        <v>21015</v>
       </c>
       <c r="B212" s="0">
         <v>0</v>
@@ -66114,15 +68354,15 @@
         <v>0</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>20660</v>
+        <v>21406</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>20270</v>
+        <v>21016</v>
       </c>
       <c r="B213" s="0">
         <v>0</v>
@@ -66131,15 +68371,15 @@
         <v>0</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>20661</v>
+        <v>21407</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>20271</v>
+        <v>21017</v>
       </c>
       <c r="B214" s="0">
         <v>0</v>
@@ -66148,15 +68388,15 @@
         <v>0</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>20662</v>
+        <v>21408</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>20272</v>
+        <v>21018</v>
       </c>
       <c r="B215" s="0">
         <v>0</v>
@@ -66165,15 +68405,15 @@
         <v>0</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>20663</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>20273</v>
+        <v>21019</v>
       </c>
       <c r="B216" s="0">
         <v>0</v>
@@ -66182,15 +68422,15 @@
         <v>0</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>20664</v>
+        <v>21410</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>20274</v>
+        <v>21020</v>
       </c>
       <c r="B217" s="0">
         <v>0</v>
@@ -66199,15 +68439,15 @@
         <v>0</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>20665</v>
+        <v>21411</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>20275</v>
+        <v>21021</v>
       </c>
       <c r="B218" s="0">
         <v>0</v>
@@ -66216,15 +68456,15 @@
         <v>0</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>20666</v>
+        <v>21412</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>20276</v>
+        <v>21022</v>
       </c>
       <c r="B219" s="0">
         <v>0</v>
@@ -66233,15 +68473,15 @@
         <v>0</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>20667</v>
+        <v>21413</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>20277</v>
+        <v>21023</v>
       </c>
       <c r="B220" s="0">
         <v>0</v>
@@ -66250,15 +68490,15 @@
         <v>0</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>20668</v>
+        <v>21414</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>20278</v>
+        <v>21024</v>
       </c>
       <c r="B221" s="0">
         <v>0</v>
@@ -66267,15 +68507,15 @@
         <v>0</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>20669</v>
+        <v>21415</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>20279</v>
+        <v>21025</v>
       </c>
       <c r="B222" s="0">
         <v>0</v>
@@ -66284,15 +68524,15 @@
         <v>0</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>20669</v>
+        <v>21415</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>20280</v>
+        <v>21026</v>
       </c>
       <c r="B223" s="0">
         <v>0</v>
@@ -66301,15 +68541,15 @@
         <v>0</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>20669</v>
+        <v>21415</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>20281</v>
+        <v>21027</v>
       </c>
       <c r="B224" s="0">
         <v>0</v>
@@ -66318,15 +68558,15 @@
         <v>0</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>20669</v>
+        <v>21415</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>20282</v>
+        <v>21028</v>
       </c>
       <c r="B225" s="0">
         <v>1</v>
@@ -66335,15 +68575,15 @@
         <v>0</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>20670</v>
+        <v>21416</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>20283</v>
+        <v>21029</v>
       </c>
       <c r="B226" s="0">
         <v>0.65000000000000002</v>
@@ -66352,15 +68592,15 @@
         <v>0</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>20671</v>
+        <v>21417</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>20284</v>
+        <v>21030</v>
       </c>
       <c r="B227" s="0">
         <v>0.69999999999999996</v>
@@ -66369,15 +68609,15 @@
         <v>0</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>20672</v>
+        <v>21418</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>20285</v>
+        <v>21031</v>
       </c>
       <c r="B228" s="0">
         <v>0.90000000000000002</v>
@@ -66386,15 +68626,15 @@
         <v>0</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>20673</v>
+        <v>21419</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>20286</v>
+        <v>21032</v>
       </c>
       <c r="B229" s="0">
         <v>0.90000000000000002</v>
@@ -66403,15 +68643,15 @@
         <v>0</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>20674</v>
+        <v>21420</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>20287</v>
+        <v>21033</v>
       </c>
       <c r="B230" s="0">
         <v>0.5</v>
@@ -66420,15 +68660,15 @@
         <v>0</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>20675</v>
+        <v>21421</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>20288</v>
+        <v>21034</v>
       </c>
       <c r="B231" s="0">
         <v>1</v>
@@ -66437,15 +68677,15 @@
         <v>0</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>20676</v>
+        <v>21422</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>20289</v>
+        <v>21035</v>
       </c>
       <c r="B232" s="0">
         <v>1.03</v>
@@ -66454,15 +68694,15 @@
         <v>0</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>20677</v>
+        <v>21423</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>20290</v>
+        <v>21036</v>
       </c>
       <c r="B233" s="0">
         <v>0.5</v>
@@ -66471,15 +68711,15 @@
         <v>0</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>20678</v>
+        <v>21424</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>20291</v>
+        <v>21037</v>
       </c>
       <c r="B234" s="0">
         <v>0.94999999999999996</v>
@@ -66488,15 +68728,15 @@
         <v>0</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>20679</v>
+        <v>21425</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>20292</v>
+        <v>21038</v>
       </c>
       <c r="B235" s="0">
         <v>0</v>
@@ -66505,15 +68745,15 @@
         <v>0</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>20680</v>
+        <v>21426</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>20293</v>
+        <v>21039</v>
       </c>
       <c r="B236" s="0">
         <v>0.5</v>
@@ -66522,15 +68762,15 @@
         <v>0</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>20681</v>
+        <v>21427</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>20294</v>
+        <v>21040</v>
       </c>
       <c r="B237" s="0">
         <v>0.90000000000000002</v>
@@ -66539,15 +68779,15 @@
         <v>0</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>20682</v>
+        <v>21428</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>20295</v>
+        <v>21041</v>
       </c>
       <c r="B238" s="0">
         <v>0.14999999999999999</v>
@@ -66556,15 +68796,15 @@
         <v>0</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>20683</v>
+        <v>21429</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>20296</v>
+        <v>21042</v>
       </c>
       <c r="B239" s="0">
         <v>1</v>
@@ -66573,15 +68813,15 @@
         <v>0</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>20684</v>
+        <v>21430</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>20297</v>
+        <v>21043</v>
       </c>
       <c r="B240" s="0">
         <v>0.29999999999999999</v>
@@ -66590,15 +68830,15 @@
         <v>0</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>20685</v>
+        <v>21431</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>20298</v>
+        <v>21044</v>
       </c>
       <c r="B241" s="0">
         <v>0.5</v>
@@ -66607,15 +68847,15 @@
         <v>0</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>20686</v>
+        <v>21432</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>20299</v>
+        <v>21045</v>
       </c>
       <c r="B242" s="0">
         <v>0.36133635566501882</v>
@@ -66624,15 +68864,15 @@
         <v>0</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>20687</v>
+        <v>21433</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>20300</v>
+        <v>21046</v>
       </c>
       <c r="B243" s="0">
         <v>0.050000000000000003</v>
@@ -66641,15 +68881,15 @@
         <v>0</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>20688</v>
+        <v>21434</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>20301</v>
+        <v>21047</v>
       </c>
       <c r="B244" s="0">
         <v>0</v>
@@ -66658,15 +68898,15 @@
         <v>0</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>20689</v>
+        <v>21435</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>20302</v>
+        <v>21048</v>
       </c>
       <c r="B245" s="0">
         <v>0.80000000000000004</v>
@@ -66675,15 +68915,15 @@
         <v>0</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>20690</v>
+        <v>21436</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>20303</v>
+        <v>21049</v>
       </c>
       <c r="B246" s="0">
         <v>0.23695745288406622</v>
@@ -66692,15 +68932,15 @@
         <v>0</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>20691</v>
+        <v>21437</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>20304</v>
+        <v>21050</v>
       </c>
       <c r="B247" s="0">
         <v>5</v>
@@ -66709,15 +68949,15 @@
         <v>0</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>20692</v>
+        <v>21438</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>20305</v>
+        <v>21051</v>
       </c>
       <c r="B248" s="0">
         <v>0.33333333333333331</v>
@@ -66726,15 +68966,15 @@
         <v>0</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>20693</v>
+        <v>21439</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>20306</v>
+        <v>21052</v>
       </c>
       <c r="B249" s="0">
         <v>0.59999999999999998</v>
@@ -66743,15 +68983,15 @@
         <v>0</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>20694</v>
+        <v>21440</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>20307</v>
+        <v>21053</v>
       </c>
       <c r="B250" s="0">
         <v>0.29999999999999999</v>
@@ -66760,15 +69000,15 @@
         <v>0</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>20695</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>20308</v>
+        <v>21054</v>
       </c>
       <c r="B251" s="0">
         <v>0.050000000000000003</v>
@@ -66777,15 +69017,15 @@
         <v>0</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>20696</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>20309</v>
+        <v>21055</v>
       </c>
       <c r="B252" s="0">
         <v>0.59999999999999998</v>
@@ -66794,15 +69034,15 @@
         <v>0</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>20697</v>
+        <v>21443</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>20310</v>
+        <v>21056</v>
       </c>
       <c r="B253" s="0">
         <v>25</v>
@@ -66811,15 +69051,15 @@
         <v>0</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>20698</v>
+        <v>21444</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>20311</v>
+        <v>21057</v>
       </c>
       <c r="B254" s="0">
         <v>1.1000000000000001</v>
@@ -66828,15 +69068,15 @@
         <v>0</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>20699</v>
+        <v>21445</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>20312</v>
+        <v>21058</v>
       </c>
       <c r="B255" s="0">
         <v>0.5</v>
@@ -66845,15 +69085,15 @@
         <v>0</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>20700</v>
+        <v>21446</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>20313</v>
+        <v>21059</v>
       </c>
       <c r="B256" s="0">
         <v>2.5</v>
@@ -66862,15 +69102,15 @@
         <v>0</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>20701</v>
+        <v>21447</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>20314</v>
+        <v>21060</v>
       </c>
       <c r="B257" s="0">
         <v>0</v>
@@ -66879,15 +69119,15 @@
         <v>0</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>20702</v>
+        <v>21448</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>20315</v>
+        <v>21061</v>
       </c>
       <c r="B258" s="0">
         <v>1.3</v>
@@ -66896,15 +69136,15 @@
         <v>0</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>20703</v>
+        <v>21449</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>20316</v>
+        <v>21062</v>
       </c>
       <c r="B259" s="0">
         <v>0.5</v>
@@ -66913,15 +69153,15 @@
         <v>0</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>20704</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>20317</v>
+        <v>21063</v>
       </c>
       <c r="B260" s="0">
         <v>0.5</v>
@@ -66930,15 +69170,15 @@
         <v>0</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>20705</v>
+        <v>21451</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>20318</v>
+        <v>21064</v>
       </c>
       <c r="B261" s="0">
         <v>2</v>
@@ -66947,15 +69187,15 @@
         <v>0</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>20706</v>
+        <v>21452</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>20319</v>
+        <v>21065</v>
       </c>
       <c r="B262" s="0">
         <v>0</v>
@@ -66964,15 +69204,15 @@
         <v>0</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>20707</v>
+        <v>21453</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>20320</v>
+        <v>21066</v>
       </c>
       <c r="B263" s="0">
         <v>1</v>
@@ -66981,15 +69221,15 @@
         <v>0</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>20708</v>
+        <v>21454</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>20321</v>
+        <v>21067</v>
       </c>
       <c r="B264" s="0">
         <v>0.5</v>
@@ -66998,15 +69238,15 @@
         <v>0</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>20709</v>
+        <v>21455</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>20322</v>
+        <v>21068</v>
       </c>
       <c r="B265" s="0">
         <v>0.5</v>
@@ -67015,15 +69255,15 @@
         <v>0</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>20710</v>
+        <v>21456</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>20323</v>
+        <v>21069</v>
       </c>
       <c r="B266" s="0">
         <v>0</v>
@@ -67032,15 +69272,15 @@
         <v>0</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>20711</v>
+        <v>21457</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>20324</v>
+        <v>21070</v>
       </c>
       <c r="B267" s="0">
         <v>0.10000000000000001</v>
@@ -67049,15 +69289,15 @@
         <v>0</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>20712</v>
+        <v>21458</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>20325</v>
+        <v>21071</v>
       </c>
       <c r="B268" s="0">
         <v>0.59999999999999998</v>
@@ -67066,15 +69306,15 @@
         <v>0</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>20713</v>
+        <v>21459</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>20326</v>
+        <v>21072</v>
       </c>
       <c r="B269" s="0">
         <v>0.5</v>
@@ -67083,15 +69323,15 @@
         <v>0</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>20714</v>
+        <v>21460</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>20327</v>
+        <v>21073</v>
       </c>
       <c r="B270" s="0">
         <v>0.5</v>
@@ -67100,15 +69340,15 @@
         <v>0</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>20715</v>
+        <v>21461</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>20328</v>
+        <v>21074</v>
       </c>
       <c r="B271" s="0">
         <v>0.40000000000000002</v>
@@ -67117,15 +69357,15 @@
         <v>0</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>20716</v>
+        <v>21462</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>20329</v>
+        <v>21075</v>
       </c>
       <c r="B272" s="0">
         <v>0.20000000000000001</v>
@@ -67134,15 +69374,15 @@
         <v>0</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>20717</v>
+        <v>21463</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>20330</v>
+        <v>21076</v>
       </c>
       <c r="B273" s="0">
         <v>0</v>
@@ -67151,15 +69391,15 @@
         <v>0</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>20718</v>
+        <v>21464</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>20331</v>
+        <v>21077</v>
       </c>
       <c r="B274" s="0">
         <v>0</v>
@@ -67168,15 +69408,15 @@
         <v>0</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>20719</v>
+        <v>21465</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>20332</v>
+        <v>21078</v>
       </c>
       <c r="B275" s="0">
         <v>2.5</v>
@@ -67185,15 +69425,15 @@
         <v>0</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>20720</v>
+        <v>21466</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>20333</v>
+        <v>21079</v>
       </c>
       <c r="B276" s="0">
         <v>0.5</v>
@@ -67202,15 +69442,15 @@
         <v>0</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>20721</v>
+        <v>21467</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>20334</v>
+        <v>21080</v>
       </c>
       <c r="B277" s="0">
         <v>0.5</v>
@@ -67219,15 +69459,15 @@
         <v>0</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>20722</v>
+        <v>21468</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>20335</v>
+        <v>21081</v>
       </c>
       <c r="B278" s="0">
         <v>0.5</v>
@@ -67236,15 +69476,15 @@
         <v>0</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>20723</v>
+        <v>21469</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>20336</v>
+        <v>21082</v>
       </c>
       <c r="B279" s="0">
         <v>0</v>
@@ -67253,15 +69493,15 @@
         <v>0</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>20724</v>
+        <v>21470</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>20337</v>
+        <v>21083</v>
       </c>
       <c r="B280" s="0">
         <v>1</v>
@@ -67270,15 +69510,15 @@
         <v>0</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>20725</v>
+        <v>21471</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>20338</v>
+        <v>21084</v>
       </c>
       <c r="B281" s="0">
         <v>0.65000000000000002</v>
@@ -67287,15 +69527,15 @@
         <v>0</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>20726</v>
+        <v>21472</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>20339</v>
+        <v>21085</v>
       </c>
       <c r="B282" s="0">
         <v>0.69999999999999996</v>
@@ -67304,15 +69544,15 @@
         <v>0</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>20727</v>
+        <v>21473</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>20340</v>
+        <v>21086</v>
       </c>
       <c r="B283" s="0">
         <v>0.90000000000000002</v>
@@ -67321,15 +69561,15 @@
         <v>0</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>20728</v>
+        <v>21474</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>20341</v>
+        <v>21087</v>
       </c>
       <c r="B284" s="0">
         <v>0.90000000000000002</v>
@@ -67338,15 +69578,15 @@
         <v>0</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>20729</v>
+        <v>21475</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>20342</v>
+        <v>21088</v>
       </c>
       <c r="B285" s="0">
         <v>0.5</v>
@@ -67355,15 +69595,15 @@
         <v>0</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>20730</v>
+        <v>21476</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>20343</v>
+        <v>21089</v>
       </c>
       <c r="B286" s="0">
         <v>1</v>
@@ -67372,15 +69612,15 @@
         <v>0</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>20731</v>
+        <v>21477</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>20344</v>
+        <v>21090</v>
       </c>
       <c r="B287" s="0">
         <v>1.03</v>
@@ -67389,15 +69629,15 @@
         <v>0</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>20732</v>
+        <v>21478</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>20345</v>
+        <v>21091</v>
       </c>
       <c r="B288" s="0">
         <v>0.5</v>
@@ -67406,15 +69646,15 @@
         <v>0</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>20733</v>
+        <v>21479</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>20346</v>
+        <v>21092</v>
       </c>
       <c r="B289" s="0">
         <v>0.94999999999999996</v>
@@ -67423,15 +69663,15 @@
         <v>0</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>20734</v>
+        <v>21480</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>20347</v>
+        <v>21093</v>
       </c>
       <c r="B290" s="0">
         <v>0</v>
@@ -67440,15 +69680,15 @@
         <v>0</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>20735</v>
+        <v>21481</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>20348</v>
+        <v>21094</v>
       </c>
       <c r="B291" s="0">
         <v>0.5</v>
@@ -67457,15 +69697,15 @@
         <v>0</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>20736</v>
+        <v>21482</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>20349</v>
+        <v>21095</v>
       </c>
       <c r="B292" s="0">
         <v>0.90000000000000002</v>
@@ -67474,15 +69714,15 @@
         <v>0</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>20737</v>
+        <v>21483</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>20350</v>
+        <v>21096</v>
       </c>
       <c r="B293" s="0">
         <v>0.14999999999999999</v>
@@ -67491,15 +69731,15 @@
         <v>0</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>20738</v>
+        <v>21484</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>20351</v>
+        <v>21097</v>
       </c>
       <c r="B294" s="0">
         <v>1</v>
@@ -67508,15 +69748,15 @@
         <v>0</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>20739</v>
+        <v>21485</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>20352</v>
+        <v>21098</v>
       </c>
       <c r="B295" s="0">
         <v>0.29999999999999999</v>
@@ -67525,15 +69765,15 @@
         <v>0</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>20740</v>
+        <v>21486</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>20353</v>
+        <v>21099</v>
       </c>
       <c r="B296" s="0">
         <v>0.5</v>
@@ -67542,15 +69782,15 @@
         <v>0</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>20741</v>
+        <v>21487</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>20354</v>
+        <v>21100</v>
       </c>
       <c r="B297" s="0">
         <v>0.36133635566501882</v>
@@ -67559,15 +69799,15 @@
         <v>0</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>20742</v>
+        <v>21488</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>20355</v>
+        <v>21101</v>
       </c>
       <c r="B298" s="0">
         <v>0.050000000000000003</v>
@@ -67576,15 +69816,15 @@
         <v>0</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>20743</v>
+        <v>21489</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>20356</v>
+        <v>21102</v>
       </c>
       <c r="B299" s="0">
         <v>0</v>
@@ -67593,15 +69833,15 @@
         <v>0</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>20744</v>
+        <v>21490</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>20357</v>
+        <v>21103</v>
       </c>
       <c r="B300" s="0">
         <v>0.80000000000000004</v>
@@ -67610,15 +69850,15 @@
         <v>0</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>20745</v>
+        <v>21491</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>20358</v>
+        <v>21104</v>
       </c>
       <c r="B301" s="0">
         <v>0.23695745288406622</v>
@@ -67627,15 +69867,15 @@
         <v>0</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>20746</v>
+        <v>21492</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>20359</v>
+        <v>21105</v>
       </c>
       <c r="B302" s="0">
         <v>5</v>
@@ -67644,15 +69884,15 @@
         <v>0</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>20747</v>
+        <v>21493</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>20360</v>
+        <v>21106</v>
       </c>
       <c r="B303" s="0">
         <v>0.33333333333333331</v>
@@ -67661,15 +69901,15 @@
         <v>0</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>20748</v>
+        <v>21494</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>20361</v>
+        <v>21107</v>
       </c>
       <c r="B304" s="0">
         <v>0.59999999999999998</v>
@@ -67678,15 +69918,15 @@
         <v>0</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>20749</v>
+        <v>21495</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>20362</v>
+        <v>21108</v>
       </c>
       <c r="B305" s="0">
         <v>0.29999999999999999</v>
@@ -67695,15 +69935,15 @@
         <v>0</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>20750</v>
+        <v>21496</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>20363</v>
+        <v>21109</v>
       </c>
       <c r="B306" s="0">
         <v>0.050000000000000003</v>
@@ -67712,15 +69952,15 @@
         <v>0</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>20751</v>
+        <v>21497</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>20364</v>
+        <v>21110</v>
       </c>
       <c r="B307" s="0">
         <v>0.59999999999999998</v>
@@ -67729,15 +69969,15 @@
         <v>0</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>20752</v>
+        <v>21498</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>20365</v>
+        <v>21111</v>
       </c>
       <c r="B308" s="0">
         <v>25</v>
@@ -67746,15 +69986,15 @@
         <v>0</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>20753</v>
+        <v>21499</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>20366</v>
+        <v>21112</v>
       </c>
       <c r="B309" s="0">
         <v>1.1000000000000001</v>
@@ -67763,15 +70003,15 @@
         <v>0</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>20754</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>20367</v>
+        <v>21113</v>
       </c>
       <c r="B310" s="0">
         <v>0.5</v>
@@ -67780,15 +70020,15 @@
         <v>0</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>20755</v>
+        <v>21501</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>20368</v>
+        <v>21114</v>
       </c>
       <c r="B311" s="0">
         <v>2.5</v>
@@ -67797,15 +70037,15 @@
         <v>0</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>20756</v>
+        <v>21502</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>20369</v>
+        <v>21115</v>
       </c>
       <c r="B312" s="0">
         <v>0</v>
@@ -67814,15 +70054,15 @@
         <v>0</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>20757</v>
+        <v>21503</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>20370</v>
+        <v>21116</v>
       </c>
       <c r="B313" s="0">
         <v>1.3</v>
@@ -67831,15 +70071,15 @@
         <v>0</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>20758</v>
+        <v>21504</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>20371</v>
+        <v>21117</v>
       </c>
       <c r="B314" s="0">
         <v>0.5</v>
@@ -67848,15 +70088,15 @@
         <v>0</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>20759</v>
+        <v>21505</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>20372</v>
+        <v>21118</v>
       </c>
       <c r="B315" s="0">
         <v>0.5</v>
@@ -67865,15 +70105,15 @@
         <v>0</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>20760</v>
+        <v>21506</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>20373</v>
+        <v>21119</v>
       </c>
       <c r="B316" s="0">
         <v>2</v>
@@ -67882,15 +70122,15 @@
         <v>0</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>20761</v>
+        <v>21507</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>20374</v>
+        <v>21120</v>
       </c>
       <c r="B317" s="0">
         <v>0</v>
@@ -67899,15 +70139,15 @@
         <v>0</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>20762</v>
+        <v>21508</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>20375</v>
+        <v>21121</v>
       </c>
       <c r="B318" s="0">
         <v>1</v>
@@ -67916,15 +70156,15 @@
         <v>0</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>20763</v>
+        <v>21509</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>20376</v>
+        <v>21122</v>
       </c>
       <c r="B319" s="0">
         <v>0.5</v>
@@ -67933,15 +70173,15 @@
         <v>0</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>20764</v>
+        <v>21510</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>20377</v>
+        <v>21123</v>
       </c>
       <c r="B320" s="0">
         <v>0.5</v>
@@ -67950,15 +70190,15 @@
         <v>0</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>20765</v>
+        <v>21511</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>20378</v>
+        <v>21124</v>
       </c>
       <c r="B321" s="0">
         <v>0</v>
@@ -67967,15 +70207,15 @@
         <v>0</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>20766</v>
+        <v>21512</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>20379</v>
+        <v>21125</v>
       </c>
       <c r="B322" s="0">
         <v>0.10000000000000001</v>
@@ -67984,15 +70224,15 @@
         <v>0</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>20767</v>
+        <v>21513</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>20380</v>
+        <v>21126</v>
       </c>
       <c r="B323" s="0">
         <v>0.59999999999999998</v>
@@ -68001,15 +70241,15 @@
         <v>0</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>20768</v>
+        <v>21514</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>20381</v>
+        <v>21127</v>
       </c>
       <c r="B324" s="0">
         <v>0.5</v>
@@ -68018,15 +70258,15 @@
         <v>0</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>20769</v>
+        <v>21515</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>20382</v>
+        <v>21128</v>
       </c>
       <c r="B325" s="0">
         <v>0.5</v>
@@ -68035,15 +70275,15 @@
         <v>0</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>20770</v>
+        <v>21516</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>20383</v>
+        <v>21129</v>
       </c>
       <c r="B326" s="0">
         <v>0.40000000000000002</v>
@@ -68052,15 +70292,15 @@
         <v>0</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>20771</v>
+        <v>21517</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>20384</v>
+        <v>21130</v>
       </c>
       <c r="B327" s="0">
         <v>0.20000000000000001</v>
@@ -68069,15 +70309,15 @@
         <v>0</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>20772</v>
+        <v>21518</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>20385</v>
+        <v>21131</v>
       </c>
       <c r="B328" s="0">
         <v>0</v>
@@ -68086,15 +70326,15 @@
         <v>0</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>20773</v>
+        <v>21519</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>20386</v>
+        <v>21132</v>
       </c>
       <c r="B329" s="0">
         <v>0</v>
@@ -68103,15 +70343,15 @@
         <v>0</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>20774</v>
+        <v>21520</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>20387</v>
+        <v>21133</v>
       </c>
       <c r="B330" s="0">
         <v>2.5</v>
@@ -68120,15 +70360,15 @@
         <v>0</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>20775</v>
+        <v>21521</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>20388</v>
+        <v>21134</v>
       </c>
       <c r="B331" s="0">
         <v>0.5</v>
@@ -68137,15 +70377,15 @@
         <v>0</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>20776</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>20389</v>
+        <v>21135</v>
       </c>
       <c r="B332" s="0">
         <v>0.5</v>
@@ -68154,15 +70394,15 @@
         <v>0</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>20777</v>
+        <v>21523</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>20390</v>
+        <v>21136</v>
       </c>
       <c r="B333" s="0">
         <v>0.5</v>
@@ -68171,15 +70411,15 @@
         <v>0</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>20778</v>
+        <v>21524</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>20391</v>
+        <v>21137</v>
       </c>
       <c r="B334" s="0">
         <v>0</v>
@@ -68188,15 +70428,15 @@
         <v>0</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>20779</v>
+        <v>21525</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>20392</v>
+        <v>21138</v>
       </c>
       <c r="B335" s="0">
         <v>0.5</v>
@@ -68205,15 +70445,15 @@
         <v>0</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>20780</v>
+        <v>21526</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>20393</v>
+        <v>21139</v>
       </c>
       <c r="B336" s="0">
         <v>1.02</v>
@@ -68222,15 +70462,15 @@
         <v>0</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>20781</v>
+        <v>21527</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>20394</v>
+        <v>21140</v>
       </c>
       <c r="B337" s="0">
         <v>0.90000000000000002</v>
@@ -68239,15 +70479,15 @@
         <v>0</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>20782</v>
+        <v>21528</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>20395</v>
+        <v>21141</v>
       </c>
       <c r="B338" s="0">
         <v>1.01</v>
@@ -68256,15 +70496,15 @@
         <v>0</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>20783</v>
+        <v>21529</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>20396</v>
+        <v>21142</v>
       </c>
       <c r="B339" s="0">
         <v>-0.050542547115933714</v>
@@ -68273,15 +70513,15 @@
         <v>0</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>20784</v>
+        <v>21530</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>20397</v>
+        <v>21143</v>
       </c>
       <c r="B340" s="0">
         <v>1</v>
@@ -68290,15 +70530,15 @@
         <v>0</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>20785</v>
+        <v>21531</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>20398</v>
+        <v>21144</v>
       </c>
       <c r="B341" s="0">
         <v>0.69999999999999996</v>
@@ -68307,15 +70547,15 @@
         <v>0</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>20786</v>
+        <v>21532</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>20399</v>
+        <v>21145</v>
       </c>
       <c r="B342" s="0">
         <v>0.20000000000000001</v>
@@ -68324,15 +70564,15 @@
         <v>0</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>20787</v>
+        <v>21533</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>20400</v>
+        <v>21146</v>
       </c>
       <c r="B343" s="0">
         <v>0.5</v>
@@ -68341,15 +70581,15 @@
         <v>0</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>20788</v>
+        <v>21534</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>20401</v>
+        <v>21147</v>
       </c>
       <c r="B344" s="0">
         <v>0.5</v>
@@ -68358,15 +70598,15 @@
         <v>0</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>20789</v>
+        <v>21535</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>20402</v>
+        <v>21148</v>
       </c>
       <c r="B345" s="0">
         <v>0.5</v>
@@ -68375,15 +70615,15 @@
         <v>0</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>20790</v>
+        <v>21536</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>20403</v>
+        <v>21149</v>
       </c>
       <c r="B346" s="0">
         <v>0.5</v>
@@ -68392,15 +70632,15 @@
         <v>0</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>20791</v>
+        <v>21537</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>20404</v>
+        <v>21150</v>
       </c>
       <c r="B347" s="0">
         <v>0.5</v>
@@ -68409,15 +70649,15 @@
         <v>0</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>20792</v>
+        <v>21538</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>20405</v>
+        <v>21151</v>
       </c>
       <c r="B348" s="0">
         <v>0.5</v>
@@ -68426,15 +70666,15 @@
         <v>0</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>20793</v>
+        <v>21539</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>20406</v>
+        <v>21152</v>
       </c>
       <c r="B349" s="0">
         <v>0</v>
@@ -68443,15 +70683,15 @@
         <v>0</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>20794</v>
+        <v>21540</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>20407</v>
+        <v>21153</v>
       </c>
       <c r="B350" s="0">
         <v>0</v>
@@ -68460,15 +70700,15 @@
         <v>0</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>20795</v>
+        <v>21541</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>20408</v>
+        <v>21154</v>
       </c>
       <c r="B351" s="0">
         <v>0</v>
@@ -68477,15 +70717,15 @@
         <v>0</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>20796</v>
+        <v>21542</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>20409</v>
+        <v>21155</v>
       </c>
       <c r="B352" s="0">
         <v>0</v>
@@ -68494,15 +70734,15 @@
         <v>0</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>20797</v>
+        <v>21543</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>20410</v>
+        <v>21156</v>
       </c>
       <c r="B353" s="0">
         <v>0</v>
@@ -68511,15 +70751,15 @@
         <v>0</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>20798</v>
+        <v>21544</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>20411</v>
+        <v>21157</v>
       </c>
       <c r="B354" s="0">
         <v>0</v>
@@ -68528,15 +70768,15 @@
         <v>0</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>20799</v>
+        <v>21545</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>20412</v>
+        <v>21158</v>
       </c>
       <c r="B355" s="0">
         <v>0</v>
@@ -68545,15 +70785,15 @@
         <v>0</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>20800</v>
+        <v>21546</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>20413</v>
+        <v>21159</v>
       </c>
       <c r="B356" s="0">
         <v>0</v>
@@ -68562,15 +70802,15 @@
         <v>0</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>20801</v>
+        <v>21547</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>20414</v>
+        <v>21160</v>
       </c>
       <c r="B357" s="0">
         <v>0.90000000000000002</v>
@@ -68579,15 +70819,15 @@
         <v>0</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>20802</v>
+        <v>21548</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>20415</v>
+        <v>21161</v>
       </c>
       <c r="B358" s="0">
         <v>0.099999999999999978</v>
@@ -68596,15 +70836,15 @@
         <v>0</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>20802</v>
+        <v>21548</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>20416</v>
+        <v>21162</v>
       </c>
       <c r="B359" s="0">
         <v>0.099999999999999978</v>
@@ -68613,15 +70853,15 @@
         <v>0</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>20802</v>
+        <v>21548</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>20417</v>
+        <v>21163</v>
       </c>
       <c r="B360" s="0">
         <v>0.90000000000000002</v>
@@ -68630,15 +70870,15 @@
         <v>0</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>20802</v>
+        <v>21548</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>20418</v>
+        <v>21164</v>
       </c>
       <c r="B361" s="0">
         <v>0</v>
@@ -68647,10 +70887,10 @@
         <v>1</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>20451</v>
+        <v>21197</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>20803</v>
+        <v>21549</v>
       </c>
     </row>
   </sheetData>
